--- a/static/Models/Classification/Equation/Information Technology.xlsx
+++ b/static/Models/Classification/Equation/Information Technology.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>4.503691673278809</v>
+        <v>3.93162727355957</v>
       </c>
       <c r="C2">
-        <v>-23.38852310180664</v>
+        <v>-22.51089859008789</v>
       </c>
       <c r="D2">
-        <v>-5.266931056976318</v>
+        <v>-4.877480030059814</v>
       </c>
       <c r="E2">
-        <v>1.598300933837891</v>
+        <v>1.250489830970764</v>
       </c>
       <c r="F2">
-        <v>-1.577901721000671</v>
+        <v>-2.033608675003052</v>
       </c>
       <c r="G2">
-        <v>6.199488162994385</v>
+        <v>7.032067775726318</v>
       </c>
       <c r="H2">
-        <v>-0.761928915977478</v>
+        <v>0.1870408356189728</v>
       </c>
       <c r="I2">
-        <v>2.240140199661255</v>
+        <v>2.213873863220215</v>
       </c>
       <c r="J2">
-        <v>-5.947961330413818</v>
+        <v>-6.179976940155029</v>
       </c>
       <c r="K2">
-        <v>0.2278708219528198</v>
+        <v>-0.8736714720726013</v>
       </c>
       <c r="L2">
-        <v>-1.883510828018188</v>
+        <v>-2.575265884399414</v>
       </c>
       <c r="M2">
-        <v>-0.8621353507041931</v>
+        <v>-0.2671517729759216</v>
       </c>
       <c r="N2">
-        <v>-0.9939787983894348</v>
+        <v>-0.4689910709857941</v>
       </c>
       <c r="O2">
-        <v>-5.84017276763916</v>
+        <v>-6.163038730621338</v>
       </c>
       <c r="P2">
-        <v>1.041900634765625</v>
+        <v>1.133643269538879</v>
       </c>
       <c r="Q2">
-        <v>14.28725528717041</v>
+        <v>13.46714782714844</v>
       </c>
       <c r="R2">
-        <v>-2.297875165939331</v>
+        <v>-2.857211351394653</v>
       </c>
       <c r="S2">
-        <v>-8.272406578063965</v>
+        <v>-8.35666561126709</v>
       </c>
       <c r="T2">
-        <v>1.749197244644165</v>
+        <v>1.688331604003906</v>
       </c>
       <c r="U2">
-        <v>-10.7216682434082</v>
+        <v>-9.810017585754395</v>
       </c>
       <c r="V2">
-        <v>2.445094347000122</v>
+        <v>1.188670754432678</v>
       </c>
       <c r="W2">
-        <v>-8.750758171081543</v>
+        <v>-8.624950408935547</v>
       </c>
       <c r="X2">
-        <v>1.599102854728699</v>
+        <v>2.574553251266479</v>
       </c>
       <c r="Y2">
-        <v>-8.50382137298584</v>
+        <v>-7.08398962020874</v>
       </c>
       <c r="Z2">
-        <v>3.721059083938599</v>
+        <v>3.770286798477173</v>
       </c>
       <c r="AA2">
-        <v>1.638988733291626</v>
+        <v>1.07454240322113</v>
       </c>
       <c r="AB2">
-        <v>-4.979515075683594</v>
+        <v>-4.396888732910156</v>
       </c>
       <c r="AC2">
-        <v>-4.350336074829102</v>
+        <v>-5.322986125946045</v>
       </c>
       <c r="AD2">
-        <v>-1.096637964248657</v>
+        <v>-1.125046372413635</v>
       </c>
       <c r="AE2">
-        <v>-1.03424859046936</v>
+        <v>-1.604271411895752</v>
       </c>
       <c r="AF2">
-        <v>-4.979045391082764</v>
+        <v>-4.060004234313965</v>
       </c>
       <c r="AG2">
-        <v>3.612698793411255</v>
+        <v>2.695504903793335</v>
       </c>
       <c r="AH2">
-        <v>-12.32773303985596</v>
+        <v>-13.31338691711426</v>
       </c>
       <c r="AI2">
-        <v>-4.478874206542969</v>
+        <v>-4.769871234893799</v>
       </c>
       <c r="AJ2">
-        <v>0.1896917223930359</v>
+        <v>0.1846229881048203</v>
       </c>
       <c r="AK2">
-        <v>2.393045902252197</v>
+        <v>1.965322256088257</v>
       </c>
       <c r="AL2">
-        <v>-0.9839928150177002</v>
+        <v>-1.812199234962463</v>
       </c>
       <c r="AM2">
-        <v>7.32964038848877</v>
+        <v>7.150735378265381</v>
       </c>
       <c r="AN2">
-        <v>-1.297313690185547</v>
+        <v>-0.2385247498750687</v>
       </c>
       <c r="AO2">
-        <v>-2.428165912628174</v>
+        <v>-1.426138997077942</v>
       </c>
       <c r="AP2">
-        <v>-1.176952600479126</v>
+        <v>-1.531105041503906</v>
       </c>
       <c r="AQ2">
-        <v>-1.210509181022644</v>
+        <v>-1.057115793228149</v>
       </c>
       <c r="AR2">
-        <v>10.15563011169434</v>
+        <v>10.8308629989624</v>
       </c>
       <c r="AS2">
-        <v>-2.196369886398315</v>
+        <v>-0.9406662583351135</v>
       </c>
       <c r="AT2">
-        <v>-15.11770629882812</v>
+        <v>-13.51726341247559</v>
       </c>
       <c r="AU2">
-        <v>-13.42941665649414</v>
+        <v>-13.24780559539795</v>
       </c>
       <c r="AV2">
-        <v>1.683822751045227</v>
+        <v>1.73535168170929</v>
       </c>
       <c r="AW2">
-        <v>-3.615413665771484</v>
+        <v>-3.335203409194946</v>
       </c>
       <c r="AX2">
-        <v>0.9961153268814087</v>
+        <v>1.570327401161194</v>
       </c>
       <c r="AY2">
-        <v>0.9542769193649292</v>
+        <v>1.179926156997681</v>
       </c>
       <c r="AZ2">
-        <v>2.855777025222778</v>
+        <v>2.780916690826416</v>
       </c>
       <c r="BA2">
-        <v>-5.945974349975586</v>
+        <v>-4.475376129150391</v>
       </c>
       <c r="BB2">
-        <v>4.828229904174805</v>
+        <v>4.501526355743408</v>
       </c>
       <c r="BC2">
-        <v>-0.4036991894245148</v>
+        <v>-0.4194407761096954</v>
       </c>
       <c r="BD2">
-        <v>-0.6340047717094421</v>
+        <v>-0.698875904083252</v>
       </c>
       <c r="BE2">
-        <v>-0.1469900459051132</v>
+        <v>0.318466991186142</v>
       </c>
       <c r="BF2">
-        <v>-7.003392696380615</v>
+        <v>-6.711508274078369</v>
       </c>
       <c r="BG2">
-        <v>-0.164999708533287</v>
+        <v>-0.04892019554972649</v>
       </c>
       <c r="BH2">
-        <v>2.443300247192383</v>
+        <v>2.803633213043213</v>
       </c>
       <c r="BI2">
-        <v>2.328334808349609</v>
+        <v>2.580378532409668</v>
       </c>
       <c r="BJ2">
-        <v>-3.258674144744873</v>
+        <v>-2.234846115112305</v>
       </c>
       <c r="BK2">
-        <v>-1.13138484954834</v>
+        <v>-0.8634840250015259</v>
       </c>
       <c r="BL2">
-        <v>11.46041679382324</v>
+        <v>10.84260654449463</v>
       </c>
       <c r="BM2">
-        <v>1.516470313072205</v>
+        <v>2.851911067962646</v>
       </c>
       <c r="BN2">
-        <v>-5.797019481658936</v>
+        <v>-7.324461936950684</v>
       </c>
       <c r="BO2">
-        <v>9.654475212097168</v>
+        <v>8.799145698547363</v>
       </c>
       <c r="BP2">
-        <v>-21.05737495422363</v>
+        <v>-20.98075103759766</v>
       </c>
       <c r="BQ2">
-        <v>-5.162824630737305</v>
+        <v>-5.782727718353271</v>
       </c>
       <c r="BR2">
-        <v>-1.42820680141449</v>
+        <v>-0.2671208679676056</v>
       </c>
       <c r="BS2">
-        <v>-1.227486491203308</v>
+        <v>-0.4055913090705872</v>
       </c>
       <c r="BT2">
-        <v>-2.804454803466797</v>
+        <v>-3.322099685668945</v>
       </c>
       <c r="BU2">
-        <v>-0.1245877668261528</v>
+        <v>0.2153454124927521</v>
       </c>
       <c r="BV2">
-        <v>1.238667964935303</v>
+        <v>2.145426511764526</v>
       </c>
       <c r="BW2">
-        <v>-0.244618684053421</v>
+        <v>-0.2825446724891663</v>
       </c>
       <c r="BX2">
-        <v>-15.6874475479126</v>
+        <v>-16.39342498779297</v>
       </c>
       <c r="BY2">
-        <v>-2.954255342483521</v>
+        <v>-3.419649124145508</v>
       </c>
       <c r="BZ2">
-        <v>-4.158743381500244</v>
+        <v>-4.40576696395874</v>
       </c>
       <c r="CA2">
-        <v>-5.723217964172363</v>
+        <v>-5.807326793670654</v>
       </c>
       <c r="CB2">
-        <v>-9.539774894714355</v>
+        <v>-8.442596435546875</v>
       </c>
       <c r="CC2">
-        <v>1.142125368118286</v>
+        <v>1.019924402236938</v>
       </c>
       <c r="CD2">
-        <v>0.3748326301574707</v>
+        <v>1.118229746818542</v>
       </c>
       <c r="CE2">
-        <v>-7.174758434295654</v>
+        <v>-6.825770378112793</v>
       </c>
       <c r="CF2">
-        <v>-8.175951957702637</v>
+        <v>-8.859002113342285</v>
       </c>
       <c r="CG2">
-        <v>5.884607791900635</v>
+        <v>4.807979583740234</v>
       </c>
       <c r="CH2">
-        <v>-13.54738807678223</v>
+        <v>-13.29740619659424</v>
       </c>
       <c r="CI2">
-        <v>-1.458851456642151</v>
+        <v>-1.42093288898468</v>
       </c>
       <c r="CJ2">
-        <v>-3.872662782669067</v>
+        <v>-4.998712539672852</v>
       </c>
       <c r="CK2">
-        <v>-1.706412315368652</v>
+        <v>-1.215774178504944</v>
       </c>
       <c r="CL2">
-        <v>-1.028610587120056</v>
+        <v>-1.361306428909302</v>
       </c>
       <c r="CM2">
-        <v>-7.437494277954102</v>
+        <v>-6.5296950340271</v>
       </c>
       <c r="CN2">
-        <v>-0.6855282187461853</v>
+        <v>-0.4961162805557251</v>
       </c>
       <c r="CO2">
-        <v>1.366482019424438</v>
+        <v>1.527509927749634</v>
       </c>
       <c r="CP2">
-        <v>-0.6708123087882996</v>
+        <v>-1.911250233650208</v>
       </c>
       <c r="CQ2">
-        <v>-0.984011173248291</v>
+        <v>-0.03766594082117081</v>
       </c>
       <c r="CR2">
-        <v>-0.3341074585914612</v>
+        <v>-0.004875814076513052</v>
       </c>
       <c r="CS2">
-        <v>-1.1104896068573</v>
+        <v>-1.266675353050232</v>
       </c>
       <c r="CT2">
-        <v>-1.031351327896118</v>
+        <v>-1.210485219955444</v>
       </c>
       <c r="CU2">
-        <v>-2.262268781661987</v>
+        <v>-2.892415523529053</v>
       </c>
       <c r="CV2">
-        <v>-1.049866199493408</v>
+        <v>-0.621103048324585</v>
       </c>
       <c r="CW2">
-        <v>-2.520170450210571</v>
+        <v>-1.073382258415222</v>
       </c>
       <c r="CX2">
-        <v>-0.6614974737167358</v>
+        <v>-1.544002175331116</v>
       </c>
       <c r="CY2">
-        <v>-7.569865703582764</v>
+        <v>-7.664035320281982</v>
       </c>
       <c r="CZ2">
-        <v>1.41757071018219</v>
+        <v>1.160188555717468</v>
       </c>
       <c r="DA2">
-        <v>-7.146189212799072</v>
+        <v>-7.429268836975098</v>
       </c>
       <c r="DB2">
-        <v>-15.22721767425537</v>
+        <v>-13.84785556793213</v>
       </c>
       <c r="DC2">
-        <v>-1.209997415542603</v>
+        <v>-2.041026830673218</v>
       </c>
       <c r="DD2">
-        <v>-15.87820148468018</v>
+        <v>-16.80525779724121</v>
       </c>
       <c r="DE2">
-        <v>2.124787092208862</v>
+        <v>1.879126787185669</v>
       </c>
       <c r="DF2">
-        <v>1.455637574195862</v>
+        <v>0.4883089661598206</v>
       </c>
       <c r="DG2">
-        <v>-0.0462663359940052</v>
+        <v>0.3769077062606812</v>
       </c>
       <c r="DH2">
-        <v>-1.89936351776123</v>
+        <v>-1.142575740814209</v>
       </c>
       <c r="DI2">
-        <v>-1.515349268913269</v>
+        <v>-0.215906947851181</v>
       </c>
       <c r="DJ2">
-        <v>15.28261375427246</v>
+        <v>16.2558708190918</v>
       </c>
       <c r="DK2">
-        <v>-18.79376983642578</v>
+        <v>-19.61727905273438</v>
       </c>
       <c r="DL2">
-        <v>-20.79104995727539</v>
+        <v>-21.86481285095215</v>
       </c>
       <c r="DM2">
-        <v>-18.12220764160156</v>
+        <v>-16.86006164550781</v>
       </c>
       <c r="DN2">
-        <v>0.4109324514865875</v>
+        <v>0.2816140651702881</v>
       </c>
       <c r="DO2">
-        <v>-10.49007129669189</v>
+        <v>-10.81048679351807</v>
       </c>
       <c r="DP2">
-        <v>-1.618857383728027</v>
+        <v>-1.918041825294495</v>
       </c>
       <c r="DQ2">
-        <v>3.394194364547729</v>
+        <v>2.859663009643555</v>
       </c>
       <c r="DR2">
-        <v>-1.528453707695007</v>
+        <v>-0.1877999305725098</v>
       </c>
       <c r="DS2">
-        <v>-14.89868831634521</v>
+        <v>-13.93110275268555</v>
       </c>
       <c r="DT2">
-        <v>-4.930909633636475</v>
+        <v>-6.319356441497803</v>
       </c>
       <c r="DU2">
-        <v>-8.106646537780762</v>
+        <v>-7.469554424285889</v>
       </c>
       <c r="DV2">
-        <v>-0.602007269859314</v>
+        <v>-1.304383635520935</v>
       </c>
       <c r="DW2">
-        <v>1.003613710403442</v>
+        <v>0.2454796582460403</v>
       </c>
       <c r="DX2">
-        <v>0.8275147080421448</v>
+        <v>0.7844511270523071</v>
       </c>
       <c r="DY2">
-        <v>5.73350715637207</v>
+        <v>4.835739135742188</v>
       </c>
       <c r="DZ2">
-        <v>-3.784094572067261</v>
+        <v>-3.597930908203125</v>
       </c>
       <c r="EA2">
-        <v>-19.77058982849121</v>
+        <v>-19.43441200256348</v>
       </c>
       <c r="EB2">
-        <v>-1.123856663703918</v>
+        <v>-1.181584239006042</v>
       </c>
       <c r="EC2">
-        <v>1.363047480583191</v>
+        <v>1.197502613067627</v>
       </c>
       <c r="ED2">
-        <v>-2.083038091659546</v>
+        <v>-2.066068887710571</v>
       </c>
       <c r="EE2">
-        <v>-1.08279550075531</v>
+        <v>-1.245599389076233</v>
       </c>
       <c r="EF2">
-        <v>-0.821905791759491</v>
+        <v>0.4031352698802948</v>
       </c>
       <c r="EG2">
-        <v>-5.571751594543457</v>
+        <v>-5.967215538024902</v>
       </c>
       <c r="EH2">
-        <v>-13.20190620422363</v>
+        <v>-12.81225776672363</v>
       </c>
       <c r="EI2">
-        <v>-4.476580142974854</v>
+        <v>-4.644170761108398</v>
       </c>
       <c r="EJ2">
-        <v>-0.4100778102874756</v>
+        <v>-0.7588593363761902</v>
       </c>
       <c r="EK2">
-        <v>-1.148680329322815</v>
+        <v>-1.473993062973022</v>
       </c>
       <c r="EL2">
-        <v>-2.876930713653564</v>
+        <v>-2.709214210510254</v>
       </c>
       <c r="EM2">
-        <v>6.147829532623291</v>
+        <v>6.160273551940918</v>
       </c>
       <c r="EN2">
-        <v>0.3497508764266968</v>
+        <v>1.426657557487488</v>
       </c>
       <c r="EO2">
-        <v>-7.142543792724609</v>
+        <v>-8.29942512512207</v>
       </c>
       <c r="EP2">
-        <v>-9.1322021484375</v>
+        <v>-8.653987884521484</v>
       </c>
       <c r="EQ2">
-        <v>-10.19134998321533</v>
+        <v>-9.960619926452637</v>
       </c>
       <c r="ER2">
-        <v>-2.290818691253662</v>
+        <v>-2.809493780136108</v>
       </c>
       <c r="ES2">
-        <v>-4.272886753082275</v>
+        <v>-5.091936111450195</v>
       </c>
       <c r="ET2">
-        <v>-8.528323173522949</v>
+        <v>-8.743502616882324</v>
       </c>
       <c r="EU2">
-        <v>-9.648574829101562</v>
+        <v>-10.95205879211426</v>
       </c>
       <c r="EV2">
-        <v>-6.862292766571045</v>
+        <v>-7.599448204040527</v>
       </c>
       <c r="EW2">
-        <v>-11.30851173400879</v>
+        <v>-12.49015808105469</v>
       </c>
       <c r="EX2">
-        <v>-11.86995315551758</v>
+        <v>-11.38370800018311</v>
       </c>
       <c r="EY2">
-        <v>0.8851538300514221</v>
+        <v>1.035411477088928</v>
       </c>
       <c r="EZ2">
-        <v>-1.455391407012939</v>
+        <v>-2.188920497894287</v>
       </c>
       <c r="FA2">
-        <v>0.06237360835075378</v>
+        <v>0.07538287341594696</v>
       </c>
       <c r="FB2">
-        <v>0.7951345443725586</v>
+        <v>0.5179296731948853</v>
       </c>
       <c r="FC2">
-        <v>-2.259085178375244</v>
+        <v>-1.239241600036621</v>
       </c>
       <c r="FD2">
-        <v>2.485031843185425</v>
+        <v>1.936666250228882</v>
       </c>
       <c r="FE2">
-        <v>-16.3782901763916</v>
+        <v>-17.25802230834961</v>
       </c>
       <c r="FF2">
-        <v>-5.625885486602783</v>
+        <v>-4.475063800811768</v>
       </c>
       <c r="FG2">
-        <v>-21.89578437805176</v>
+        <v>-21.8224983215332</v>
       </c>
       <c r="FH2">
-        <v>-1.044591307640076</v>
+        <v>-1.054699659347534</v>
       </c>
       <c r="FI2">
-        <v>2.480028867721558</v>
+        <v>1.0385901927948</v>
       </c>
       <c r="FJ2">
-        <v>-0.3309403359889984</v>
+        <v>0.1148647367954254</v>
       </c>
       <c r="FK2">
-        <v>-9.772391319274902</v>
+        <v>-9.792366027832031</v>
       </c>
       <c r="FL2">
-        <v>-2.628129959106445</v>
+        <v>-1.698132514953613</v>
       </c>
       <c r="FM2">
-        <v>13.19203853607178</v>
+        <v>13.6950740814209</v>
       </c>
       <c r="FN2">
-        <v>5.5495285987854</v>
+        <v>4.808590888977051</v>
       </c>
       <c r="FO2">
-        <v>-1.150801062583923</v>
+        <v>0.1357800960540771</v>
       </c>
       <c r="FP2">
-        <v>-0.05543088540434837</v>
+        <v>-0.1384480893611908</v>
       </c>
       <c r="FQ2">
-        <v>-0.3439433872699738</v>
+        <v>-0.3302499055862427</v>
       </c>
       <c r="FR2">
-        <v>0.1979348659515381</v>
+        <v>-0.2637949287891388</v>
       </c>
       <c r="FS2">
-        <v>0.136860579252243</v>
+        <v>-0.1439473181962967</v>
       </c>
       <c r="FT2">
-        <v>0.8002541065216064</v>
+        <v>0.9752705693244934</v>
       </c>
       <c r="FU2">
-        <v>-4.226413726806641</v>
+        <v>-4.137678146362305</v>
       </c>
       <c r="FV2">
-        <v>-0.9066287875175476</v>
+        <v>-0.5387197732925415</v>
       </c>
       <c r="FW2">
-        <v>0.4132984280586243</v>
+        <v>0.7834958434104919</v>
       </c>
       <c r="FX2">
-        <v>-0.2549498081207275</v>
+        <v>-1.124257802963257</v>
       </c>
       <c r="FY2">
-        <v>-2.552243232727051</v>
+        <v>-1.991227269172668</v>
       </c>
       <c r="FZ2">
-        <v>-2.087098121643066</v>
+        <v>-2.954843759536743</v>
       </c>
       <c r="GA2">
-        <v>3.014076471328735</v>
+        <v>2.69658899307251</v>
       </c>
       <c r="GB2">
-        <v>-0.3092462420463562</v>
+        <v>-1.448384761810303</v>
       </c>
       <c r="GC2">
-        <v>2.290286302566528</v>
+        <v>1.208166837692261</v>
       </c>
       <c r="GD2">
-        <v>8.918791770935059</v>
+        <v>9.148444175720215</v>
       </c>
       <c r="GE2">
-        <v>-0.183095321059227</v>
+        <v>-0.02257573790848255</v>
       </c>
       <c r="GF2">
-        <v>-9.985664367675781</v>
+        <v>-9.81151294708252</v>
       </c>
       <c r="GG2">
-        <v>-9.969024658203125</v>
+        <v>-9.19786262512207</v>
       </c>
       <c r="GH2">
-        <v>-0.8290001153945923</v>
+        <v>-0.3424298465251923</v>
       </c>
       <c r="GI2">
-        <v>-2.735681295394897</v>
+        <v>-2.748466968536377</v>
       </c>
       <c r="GJ2">
-        <v>0.1530022621154785</v>
+        <v>-0.0880395919084549</v>
       </c>
       <c r="GK2">
-        <v>-0.5843934416770935</v>
+        <v>-1.042969942092896</v>
       </c>
       <c r="GL2">
-        <v>-8.51200008392334</v>
+        <v>-8.399136543273926</v>
       </c>
       <c r="GM2">
-        <v>-9.129260063171387</v>
+        <v>-10.00424766540527</v>
       </c>
       <c r="GN2">
-        <v>2.310176610946655</v>
+        <v>2.030538082122803</v>
       </c>
       <c r="GO2">
-        <v>4.958993434906006</v>
+        <v>3.917293310165405</v>
       </c>
       <c r="GP2">
-        <v>2.013903856277466</v>
+        <v>2.034666299819946</v>
       </c>
       <c r="GQ2">
-        <v>-3.49721622467041</v>
+        <v>-3.234798908233643</v>
       </c>
       <c r="GR2">
-        <v>-0.8988966345787048</v>
+        <v>-1.150490880012512</v>
       </c>
       <c r="GS2">
-        <v>7.063383102416992</v>
+        <v>7.904367446899414</v>
       </c>
       <c r="GT2">
-        <v>0.04760334640741348</v>
+        <v>-0.200702428817749</v>
       </c>
       <c r="GU2">
-        <v>-3.748932361602783</v>
+        <v>-3.837949514389038</v>
       </c>
       <c r="GV2">
-        <v>0.009002338163554668</v>
+        <v>-0.1157202497124672</v>
       </c>
       <c r="GW2">
-        <v>5.1155686378479</v>
+        <v>5.423110961914062</v>
       </c>
       <c r="GX2">
-        <v>-2.292131423950195</v>
+        <v>-2.518581390380859</v>
       </c>
       <c r="GY2">
-        <v>-1.91045069694519</v>
+        <v>-1.941882967948914</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Information Technology.xlsx
+++ b/static/Models/Classification/Equation/Information Technology.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>3.93162727355957</v>
+        <v>3.915779113769531</v>
       </c>
       <c r="C2">
-        <v>-22.51089859008789</v>
+        <v>-22.7241096496582</v>
       </c>
       <c r="D2">
-        <v>-4.877480030059814</v>
+        <v>-4.544179439544678</v>
       </c>
       <c r="E2">
-        <v>1.250489830970764</v>
+        <v>1.541993260383606</v>
       </c>
       <c r="F2">
-        <v>-2.033608675003052</v>
+        <v>-2.264384508132935</v>
       </c>
       <c r="G2">
-        <v>7.032067775726318</v>
+        <v>6.625261306762695</v>
       </c>
       <c r="H2">
-        <v>0.1870408356189728</v>
+        <v>-0.4813996255397797</v>
       </c>
       <c r="I2">
-        <v>2.213873863220215</v>
+        <v>2.52980899810791</v>
       </c>
       <c r="J2">
-        <v>-6.179976940155029</v>
+        <v>-5.541805744171143</v>
       </c>
       <c r="K2">
-        <v>-0.8736714720726013</v>
+        <v>-0.965765118598938</v>
       </c>
       <c r="L2">
-        <v>-2.575265884399414</v>
+        <v>-3.113000392913818</v>
       </c>
       <c r="M2">
-        <v>-0.2671517729759216</v>
+        <v>-0.0914183109998703</v>
       </c>
       <c r="N2">
-        <v>-0.4689910709857941</v>
+        <v>-1.410001754760742</v>
       </c>
       <c r="O2">
-        <v>-6.163038730621338</v>
+        <v>-6.015117645263672</v>
       </c>
       <c r="P2">
-        <v>1.133643269538879</v>
+        <v>0.3133493661880493</v>
       </c>
       <c r="Q2">
-        <v>13.46714782714844</v>
+        <v>13.84937953948975</v>
       </c>
       <c r="R2">
-        <v>-2.857211351394653</v>
+        <v>-2.201957225799561</v>
       </c>
       <c r="S2">
-        <v>-8.35666561126709</v>
+        <v>-8.04100513458252</v>
       </c>
       <c r="T2">
-        <v>1.688331604003906</v>
+        <v>1.926209926605225</v>
       </c>
       <c r="U2">
-        <v>-9.810017585754395</v>
+        <v>-9.077475547790527</v>
       </c>
       <c r="V2">
-        <v>1.188670754432678</v>
+        <v>1.006415367126465</v>
       </c>
       <c r="W2">
-        <v>-8.624950408935547</v>
+        <v>-8.273445129394531</v>
       </c>
       <c r="X2">
-        <v>2.574553251266479</v>
+        <v>2.535325765609741</v>
       </c>
       <c r="Y2">
-        <v>-7.08398962020874</v>
+        <v>-7.037444114685059</v>
       </c>
       <c r="Z2">
-        <v>3.770286798477173</v>
+        <v>3.497743844985962</v>
       </c>
       <c r="AA2">
-        <v>1.07454240322113</v>
+        <v>1.968954086303711</v>
       </c>
       <c r="AB2">
-        <v>-4.396888732910156</v>
+        <v>-4.141326427459717</v>
       </c>
       <c r="AC2">
-        <v>-5.322986125946045</v>
+        <v>-5.670574188232422</v>
       </c>
       <c r="AD2">
-        <v>-1.125046372413635</v>
+        <v>-0.9492228031158447</v>
       </c>
       <c r="AE2">
-        <v>-1.604271411895752</v>
+        <v>-2.058693408966064</v>
       </c>
       <c r="AF2">
-        <v>-4.060004234313965</v>
+        <v>-3.625192642211914</v>
       </c>
       <c r="AG2">
-        <v>2.695504903793335</v>
+        <v>2.940295934677124</v>
       </c>
       <c r="AH2">
-        <v>-13.31338691711426</v>
+        <v>-12.92368698120117</v>
       </c>
       <c r="AI2">
-        <v>-4.769871234893799</v>
+        <v>-4.938906192779541</v>
       </c>
       <c r="AJ2">
-        <v>0.1846229881048203</v>
+        <v>0.9760721921920776</v>
       </c>
       <c r="AK2">
-        <v>1.965322256088257</v>
+        <v>2.658160924911499</v>
       </c>
       <c r="AL2">
-        <v>-1.812199234962463</v>
+        <v>-2.275662422180176</v>
       </c>
       <c r="AM2">
-        <v>7.150735378265381</v>
+        <v>6.687005519866943</v>
       </c>
       <c r="AN2">
-        <v>-0.2385247498750687</v>
+        <v>0.358180969953537</v>
       </c>
       <c r="AO2">
-        <v>-1.426138997077942</v>
+        <v>-1.281678795814514</v>
       </c>
       <c r="AP2">
-        <v>-1.531105041503906</v>
+        <v>-1.88960075378418</v>
       </c>
       <c r="AQ2">
-        <v>-1.057115793228149</v>
+        <v>-0.3560496270656586</v>
       </c>
       <c r="AR2">
-        <v>10.8308629989624</v>
+        <v>11.61433887481689</v>
       </c>
       <c r="AS2">
-        <v>-0.9406662583351135</v>
+        <v>-0.4569156765937805</v>
       </c>
       <c r="AT2">
-        <v>-13.51726341247559</v>
+        <v>-13.6184139251709</v>
       </c>
       <c r="AU2">
-        <v>-13.24780559539795</v>
+        <v>-13.85365676879883</v>
       </c>
       <c r="AV2">
-        <v>1.73535168170929</v>
+        <v>1.586716294288635</v>
       </c>
       <c r="AW2">
-        <v>-3.335203409194946</v>
+        <v>-3.713134288787842</v>
       </c>
       <c r="AX2">
-        <v>1.570327401161194</v>
+        <v>1.648685574531555</v>
       </c>
       <c r="AY2">
-        <v>1.179926156997681</v>
+        <v>1.803699731826782</v>
       </c>
       <c r="AZ2">
-        <v>2.780916690826416</v>
+        <v>3.271366596221924</v>
       </c>
       <c r="BA2">
-        <v>-4.475376129150391</v>
+        <v>-4.39281177520752</v>
       </c>
       <c r="BB2">
-        <v>4.501526355743408</v>
+        <v>5.014824867248535</v>
       </c>
       <c r="BC2">
-        <v>-0.4194407761096954</v>
+        <v>-0.05645099282264709</v>
       </c>
       <c r="BD2">
-        <v>-0.698875904083252</v>
+        <v>-0.5034822225570679</v>
       </c>
       <c r="BE2">
-        <v>0.318466991186142</v>
+        <v>0.2765464186668396</v>
       </c>
       <c r="BF2">
-        <v>-6.711508274078369</v>
+        <v>-6.440841674804688</v>
       </c>
       <c r="BG2">
-        <v>-0.04892019554972649</v>
+        <v>0.1324863582849503</v>
       </c>
       <c r="BH2">
-        <v>2.803633213043213</v>
+        <v>2.9104905128479</v>
       </c>
       <c r="BI2">
-        <v>2.580378532409668</v>
+        <v>2.816558361053467</v>
       </c>
       <c r="BJ2">
-        <v>-2.234846115112305</v>
+        <v>-2.389246940612793</v>
       </c>
       <c r="BK2">
-        <v>-0.8634840250015259</v>
+        <v>-1.285632610321045</v>
       </c>
       <c r="BL2">
-        <v>10.84260654449463</v>
+        <v>10.94135093688965</v>
       </c>
       <c r="BM2">
-        <v>2.851911067962646</v>
+        <v>2.782264232635498</v>
       </c>
       <c r="BN2">
-        <v>-7.324461936950684</v>
+        <v>-6.969205379486084</v>
       </c>
       <c r="BO2">
-        <v>8.799145698547363</v>
+        <v>9.017328262329102</v>
       </c>
       <c r="BP2">
-        <v>-20.98075103759766</v>
+        <v>-21.02776336669922</v>
       </c>
       <c r="BQ2">
-        <v>-5.782727718353271</v>
+        <v>-5.381011486053467</v>
       </c>
       <c r="BR2">
-        <v>-0.2671208679676056</v>
+        <v>-0.181775763630867</v>
       </c>
       <c r="BS2">
-        <v>-0.4055913090705872</v>
+        <v>0.2024513483047485</v>
       </c>
       <c r="BT2">
-        <v>-3.322099685668945</v>
+        <v>-2.518224477767944</v>
       </c>
       <c r="BU2">
-        <v>0.2153454124927521</v>
+        <v>0.3468729555606842</v>
       </c>
       <c r="BV2">
-        <v>2.145426511764526</v>
+        <v>1.716769695281982</v>
       </c>
       <c r="BW2">
-        <v>-0.2825446724891663</v>
+        <v>-0.5242830514907837</v>
       </c>
       <c r="BX2">
-        <v>-16.39342498779297</v>
+        <v>-15.6920919418335</v>
       </c>
       <c r="BY2">
-        <v>-3.419649124145508</v>
+        <v>-3.497209310531616</v>
       </c>
       <c r="BZ2">
-        <v>-4.40576696395874</v>
+        <v>-3.847314119338989</v>
       </c>
       <c r="CA2">
-        <v>-5.807326793670654</v>
+        <v>-6.400704860687256</v>
       </c>
       <c r="CB2">
-        <v>-8.442596435546875</v>
+        <v>-7.896364212036133</v>
       </c>
       <c r="CC2">
-        <v>1.019924402236938</v>
+        <v>1.217038631439209</v>
       </c>
       <c r="CD2">
-        <v>1.118229746818542</v>
+        <v>1.00831663608551</v>
       </c>
       <c r="CE2">
-        <v>-6.825770378112793</v>
+        <v>-7.181492328643799</v>
       </c>
       <c r="CF2">
-        <v>-8.859002113342285</v>
+        <v>-8.323698043823242</v>
       </c>
       <c r="CG2">
-        <v>4.807979583740234</v>
+        <v>4.760310173034668</v>
       </c>
       <c r="CH2">
-        <v>-13.29740619659424</v>
+        <v>-13.4262809753418</v>
       </c>
       <c r="CI2">
-        <v>-1.42093288898468</v>
+        <v>-1.12640655040741</v>
       </c>
       <c r="CJ2">
-        <v>-4.998712539672852</v>
+        <v>-5.53431224822998</v>
       </c>
       <c r="CK2">
-        <v>-1.215774178504944</v>
+        <v>-1.014427781105042</v>
       </c>
       <c r="CL2">
-        <v>-1.361306428909302</v>
+        <v>-1.040241718292236</v>
       </c>
       <c r="CM2">
-        <v>-6.5296950340271</v>
+        <v>-6.384659767150879</v>
       </c>
       <c r="CN2">
-        <v>-0.4961162805557251</v>
+        <v>-1.474546909332275</v>
       </c>
       <c r="CO2">
-        <v>1.527509927749634</v>
+        <v>1.649418950080872</v>
       </c>
       <c r="CP2">
-        <v>-1.911250233650208</v>
+        <v>-1.46809995174408</v>
       </c>
       <c r="CQ2">
-        <v>-0.03766594082117081</v>
+        <v>0.04572932422161102</v>
       </c>
       <c r="CR2">
-        <v>-0.004875814076513052</v>
+        <v>0.5432806015014648</v>
       </c>
       <c r="CS2">
-        <v>-1.266675353050232</v>
+        <v>-0.8554030060768127</v>
       </c>
       <c r="CT2">
-        <v>-1.210485219955444</v>
+        <v>-1.019916415214539</v>
       </c>
       <c r="CU2">
-        <v>-2.892415523529053</v>
+        <v>-3.140625715255737</v>
       </c>
       <c r="CV2">
-        <v>-0.621103048324585</v>
+        <v>-0.868053138256073</v>
       </c>
       <c r="CW2">
-        <v>-1.073382258415222</v>
+        <v>-0.8154883980751038</v>
       </c>
       <c r="CX2">
-        <v>-1.544002175331116</v>
+        <v>-0.9959721565246582</v>
       </c>
       <c r="CY2">
-        <v>-7.664035320281982</v>
+        <v>-8.133857727050781</v>
       </c>
       <c r="CZ2">
-        <v>1.160188555717468</v>
+        <v>1.856496691703796</v>
       </c>
       <c r="DA2">
-        <v>-7.429268836975098</v>
+        <v>-7.357219219207764</v>
       </c>
       <c r="DB2">
-        <v>-13.84785556793213</v>
+        <v>-13.62276935577393</v>
       </c>
       <c r="DC2">
-        <v>-2.041026830673218</v>
+        <v>-2.798612117767334</v>
       </c>
       <c r="DD2">
-        <v>-16.80525779724121</v>
+        <v>-16.12043571472168</v>
       </c>
       <c r="DE2">
-        <v>1.879126787185669</v>
+        <v>2.339543581008911</v>
       </c>
       <c r="DF2">
-        <v>0.4883089661598206</v>
+        <v>0.5593861937522888</v>
       </c>
       <c r="DG2">
-        <v>0.3769077062606812</v>
+        <v>0.1721395999193192</v>
       </c>
       <c r="DH2">
-        <v>-1.142575740814209</v>
+        <v>-1.389023423194885</v>
       </c>
       <c r="DI2">
-        <v>-0.215906947851181</v>
+        <v>-0.3668233156204224</v>
       </c>
       <c r="DJ2">
-        <v>16.2558708190918</v>
+        <v>16.3685417175293</v>
       </c>
       <c r="DK2">
-        <v>-19.61727905273438</v>
+        <v>-19.66425704956055</v>
       </c>
       <c r="DL2">
-        <v>-21.86481285095215</v>
+        <v>-22.04993629455566</v>
       </c>
       <c r="DM2">
-        <v>-16.86006164550781</v>
+        <v>-16.87213897705078</v>
       </c>
       <c r="DN2">
-        <v>0.2816140651702881</v>
+        <v>0.4620295464992523</v>
       </c>
       <c r="DO2">
-        <v>-10.81048679351807</v>
+        <v>-10.54216575622559</v>
       </c>
       <c r="DP2">
-        <v>-1.918041825294495</v>
+        <v>-1.798938632011414</v>
       </c>
       <c r="DQ2">
-        <v>2.859663009643555</v>
+        <v>3.253021478652954</v>
       </c>
       <c r="DR2">
-        <v>-0.1877999305725098</v>
+        <v>0.07504803687334061</v>
       </c>
       <c r="DS2">
-        <v>-13.93110275268555</v>
+        <v>-13.65162372589111</v>
       </c>
       <c r="DT2">
-        <v>-6.319356441497803</v>
+        <v>-5.756432056427002</v>
       </c>
       <c r="DU2">
-        <v>-7.469554424285889</v>
+        <v>-6.991929054260254</v>
       </c>
       <c r="DV2">
-        <v>-1.304383635520935</v>
+        <v>-1.176528453826904</v>
       </c>
       <c r="DW2">
-        <v>0.2454796582460403</v>
+        <v>0.150455579161644</v>
       </c>
       <c r="DX2">
-        <v>0.7844511270523071</v>
+        <v>0.9151555895805359</v>
       </c>
       <c r="DY2">
-        <v>4.835739135742188</v>
+        <v>4.387408256530762</v>
       </c>
       <c r="DZ2">
-        <v>-3.597930908203125</v>
+        <v>-2.995959281921387</v>
       </c>
       <c r="EA2">
-        <v>-19.43441200256348</v>
+        <v>-19.96637344360352</v>
       </c>
       <c r="EB2">
-        <v>-1.181584239006042</v>
+        <v>-1.072351217269897</v>
       </c>
       <c r="EC2">
-        <v>1.197502613067627</v>
+        <v>1.804011583328247</v>
       </c>
       <c r="ED2">
-        <v>-2.066068887710571</v>
+        <v>-1.759936571121216</v>
       </c>
       <c r="EE2">
-        <v>-1.245599389076233</v>
+        <v>-0.9917435646057129</v>
       </c>
       <c r="EF2">
-        <v>0.4031352698802948</v>
+        <v>0.4660362601280212</v>
       </c>
       <c r="EG2">
-        <v>-5.967215538024902</v>
+        <v>-6.162614822387695</v>
       </c>
       <c r="EH2">
-        <v>-12.81225776672363</v>
+        <v>-12.12564277648926</v>
       </c>
       <c r="EI2">
-        <v>-4.644170761108398</v>
+        <v>-4.102285861968994</v>
       </c>
       <c r="EJ2">
-        <v>-0.7588593363761902</v>
+        <v>-0.2500465214252472</v>
       </c>
       <c r="EK2">
-        <v>-1.473993062973022</v>
+        <v>-1.19675874710083</v>
       </c>
       <c r="EL2">
-        <v>-2.709214210510254</v>
+        <v>-2.635848999023438</v>
       </c>
       <c r="EM2">
-        <v>6.160273551940918</v>
+        <v>6.20175313949585</v>
       </c>
       <c r="EN2">
-        <v>1.426657557487488</v>
+        <v>1.220989346504211</v>
       </c>
       <c r="EO2">
-        <v>-8.29942512512207</v>
+        <v>-8.513408660888672</v>
       </c>
       <c r="EP2">
-        <v>-8.653987884521484</v>
+        <v>-8.911996841430664</v>
       </c>
       <c r="EQ2">
-        <v>-9.960619926452637</v>
+        <v>-10.22319984436035</v>
       </c>
       <c r="ER2">
-        <v>-2.809493780136108</v>
+        <v>-3.16662859916687</v>
       </c>
       <c r="ES2">
-        <v>-5.091936111450195</v>
+        <v>-4.743676662445068</v>
       </c>
       <c r="ET2">
-        <v>-8.743502616882324</v>
+        <v>-9.446042060852051</v>
       </c>
       <c r="EU2">
-        <v>-10.95205879211426</v>
+        <v>-10.52340126037598</v>
       </c>
       <c r="EV2">
-        <v>-7.599448204040527</v>
+        <v>-7.599961280822754</v>
       </c>
       <c r="EW2">
-        <v>-12.49015808105469</v>
+        <v>-12.62341022491455</v>
       </c>
       <c r="EX2">
-        <v>-11.38370800018311</v>
+        <v>-10.93819427490234</v>
       </c>
       <c r="EY2">
-        <v>1.035411477088928</v>
+        <v>1.181127190589905</v>
       </c>
       <c r="EZ2">
-        <v>-2.188920497894287</v>
+        <v>-2.776188135147095</v>
       </c>
       <c r="FA2">
-        <v>0.07538287341594696</v>
+        <v>-0.6604900360107422</v>
       </c>
       <c r="FB2">
-        <v>0.5179296731948853</v>
+        <v>1.027333736419678</v>
       </c>
       <c r="FC2">
-        <v>-1.239241600036621</v>
+        <v>-1.478572130203247</v>
       </c>
       <c r="FD2">
-        <v>1.936666250228882</v>
+        <v>2.691894769668579</v>
       </c>
       <c r="FE2">
-        <v>-17.25802230834961</v>
+        <v>-17.10529136657715</v>
       </c>
       <c r="FF2">
-        <v>-4.475063800811768</v>
+        <v>-4.753659725189209</v>
       </c>
       <c r="FG2">
-        <v>-21.8224983215332</v>
+        <v>-21.94294929504395</v>
       </c>
       <c r="FH2">
-        <v>-1.054699659347534</v>
+        <v>-1.148741006851196</v>
       </c>
       <c r="FI2">
-        <v>1.0385901927948</v>
+        <v>1.62593138217926</v>
       </c>
       <c r="FJ2">
-        <v>0.1148647367954254</v>
+        <v>-0.5674090385437012</v>
       </c>
       <c r="FK2">
-        <v>-9.792366027832031</v>
+        <v>-9.043737411499023</v>
       </c>
       <c r="FL2">
-        <v>-1.698132514953613</v>
+        <v>-1.194647669792175</v>
       </c>
       <c r="FM2">
-        <v>13.6950740814209</v>
+        <v>13.76103019714355</v>
       </c>
       <c r="FN2">
-        <v>4.808590888977051</v>
+        <v>4.88489294052124</v>
       </c>
       <c r="FO2">
-        <v>0.1357800960540771</v>
+        <v>-0.0006352803320623934</v>
       </c>
       <c r="FP2">
-        <v>-0.1384480893611908</v>
+        <v>-0.5816994905471802</v>
       </c>
       <c r="FQ2">
-        <v>-0.3302499055862427</v>
+        <v>-0.2779859006404877</v>
       </c>
       <c r="FR2">
-        <v>-0.2637949287891388</v>
+        <v>0.1462244838476181</v>
       </c>
       <c r="FS2">
-        <v>-0.1439473181962967</v>
+        <v>0.07073107361793518</v>
       </c>
       <c r="FT2">
-        <v>0.9752705693244934</v>
+        <v>1.269103527069092</v>
       </c>
       <c r="FU2">
-        <v>-4.137678146362305</v>
+        <v>-3.900900602340698</v>
       </c>
       <c r="FV2">
-        <v>-0.5387197732925415</v>
+        <v>-0.3202316462993622</v>
       </c>
       <c r="FW2">
-        <v>0.7834958434104919</v>
+        <v>1.055581569671631</v>
       </c>
       <c r="FX2">
-        <v>-1.124257802963257</v>
+        <v>-1.569489598274231</v>
       </c>
       <c r="FY2">
-        <v>-1.991227269172668</v>
+        <v>-1.661752343177795</v>
       </c>
       <c r="FZ2">
-        <v>-2.954843759536743</v>
+        <v>-2.50028657913208</v>
       </c>
       <c r="GA2">
-        <v>2.69658899307251</v>
+        <v>3.040868043899536</v>
       </c>
       <c r="GB2">
-        <v>-1.448384761810303</v>
+        <v>-0.7526575326919556</v>
       </c>
       <c r="GC2">
-        <v>1.208166837692261</v>
+        <v>1.378095388412476</v>
       </c>
       <c r="GD2">
-        <v>9.148444175720215</v>
+        <v>9.726459503173828</v>
       </c>
       <c r="GE2">
-        <v>-0.02257573790848255</v>
+        <v>0.07549507915973663</v>
       </c>
       <c r="GF2">
-        <v>-9.81151294708252</v>
+        <v>-9.167167663574219</v>
       </c>
       <c r="GG2">
-        <v>-9.19786262512207</v>
+        <v>-8.378414154052734</v>
       </c>
       <c r="GH2">
-        <v>-0.3424298465251923</v>
+        <v>0.04267413541674614</v>
       </c>
       <c r="GI2">
-        <v>-2.748466968536377</v>
+        <v>-2.532790899276733</v>
       </c>
       <c r="GJ2">
-        <v>-0.0880395919084549</v>
+        <v>0.4853926301002502</v>
       </c>
       <c r="GK2">
-        <v>-1.042969942092896</v>
+        <v>-0.8922451734542847</v>
       </c>
       <c r="GL2">
-        <v>-8.399136543273926</v>
+        <v>-8.980663299560547</v>
       </c>
       <c r="GM2">
-        <v>-10.00424766540527</v>
+        <v>-9.572773933410645</v>
       </c>
       <c r="GN2">
-        <v>2.030538082122803</v>
+        <v>2.065585613250732</v>
       </c>
       <c r="GO2">
-        <v>3.917293310165405</v>
+        <v>3.242298126220703</v>
       </c>
       <c r="GP2">
-        <v>2.034666299819946</v>
+        <v>2.270036935806274</v>
       </c>
       <c r="GQ2">
-        <v>-3.234798908233643</v>
+        <v>-2.623192071914673</v>
       </c>
       <c r="GR2">
-        <v>-1.150490880012512</v>
+        <v>-1.530344486236572</v>
       </c>
       <c r="GS2">
-        <v>7.904367446899414</v>
+        <v>8.502245903015137</v>
       </c>
       <c r="GT2">
-        <v>-0.200702428817749</v>
+        <v>-0.1182093992829323</v>
       </c>
       <c r="GU2">
-        <v>-3.837949514389038</v>
+        <v>-4.258148670196533</v>
       </c>
       <c r="GV2">
-        <v>-0.1157202497124672</v>
+        <v>0.2645681798458099</v>
       </c>
       <c r="GW2">
-        <v>5.423110961914062</v>
+        <v>5.476601600646973</v>
       </c>
       <c r="GX2">
-        <v>-2.518581390380859</v>
+        <v>-2.060867547988892</v>
       </c>
       <c r="GY2">
-        <v>-1.941882967948914</v>
+        <v>-1.803767085075378</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Information Technology.xlsx
+++ b/static/Models/Classification/Equation/Information Technology.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>3.915779113769531</v>
+        <v>3.197726964950562</v>
       </c>
       <c r="C2">
-        <v>-22.7241096496582</v>
+        <v>-19.94513320922852</v>
       </c>
       <c r="D2">
-        <v>-4.544179439544678</v>
+        <v>-5.235840320587158</v>
       </c>
       <c r="E2">
-        <v>1.541993260383606</v>
+        <v>3.637232065200806</v>
       </c>
       <c r="F2">
-        <v>-2.264384508132935</v>
+        <v>-0.9234431982040405</v>
       </c>
       <c r="G2">
-        <v>6.625261306762695</v>
+        <v>7.133654594421387</v>
       </c>
       <c r="H2">
-        <v>-0.4813996255397797</v>
+        <v>0.2498003393411636</v>
       </c>
       <c r="I2">
-        <v>2.52980899810791</v>
+        <v>1.296075463294983</v>
       </c>
       <c r="J2">
-        <v>-5.541805744171143</v>
+        <v>-6.745841979980469</v>
       </c>
       <c r="K2">
-        <v>-0.965765118598938</v>
+        <v>-0.2006091177463531</v>
       </c>
       <c r="L2">
-        <v>-3.113000392913818</v>
+        <v>-2.846998929977417</v>
       </c>
       <c r="M2">
-        <v>-0.0914183109998703</v>
+        <v>-0.62459796667099</v>
       </c>
       <c r="N2">
-        <v>-1.410001754760742</v>
+        <v>-1.631764769554138</v>
       </c>
       <c r="O2">
-        <v>-6.015117645263672</v>
+        <v>-5.416181564331055</v>
       </c>
       <c r="P2">
-        <v>0.3133493661880493</v>
+        <v>-1.210663914680481</v>
       </c>
       <c r="Q2">
-        <v>13.84937953948975</v>
+        <v>14.09566020965576</v>
       </c>
       <c r="R2">
-        <v>-2.201957225799561</v>
+        <v>-2.965248346328735</v>
       </c>
       <c r="S2">
-        <v>-8.04100513458252</v>
+        <v>-7.636051177978516</v>
       </c>
       <c r="T2">
-        <v>1.926209926605225</v>
+        <v>1.472396612167358</v>
       </c>
       <c r="U2">
-        <v>-9.077475547790527</v>
+        <v>-10.78053569793701</v>
       </c>
       <c r="V2">
-        <v>1.006415367126465</v>
+        <v>-0.6354812383651733</v>
       </c>
       <c r="W2">
-        <v>-8.273445129394531</v>
+        <v>-10.56899547576904</v>
       </c>
       <c r="X2">
-        <v>2.535325765609741</v>
+        <v>3.423072814941406</v>
       </c>
       <c r="Y2">
-        <v>-7.037444114685059</v>
+        <v>-5.656836986541748</v>
       </c>
       <c r="Z2">
-        <v>3.497743844985962</v>
+        <v>3.544612646102905</v>
       </c>
       <c r="AA2">
-        <v>1.968954086303711</v>
+        <v>0.4628607928752899</v>
       </c>
       <c r="AB2">
-        <v>-4.141326427459717</v>
+        <v>-4.702570915222168</v>
       </c>
       <c r="AC2">
-        <v>-5.670574188232422</v>
+        <v>-8.058765411376953</v>
       </c>
       <c r="AD2">
-        <v>-0.9492228031158447</v>
+        <v>-1.119085311889648</v>
       </c>
       <c r="AE2">
-        <v>-2.058693408966064</v>
+        <v>-1.537241458892822</v>
       </c>
       <c r="AF2">
-        <v>-3.625192642211914</v>
+        <v>-2.478987216949463</v>
       </c>
       <c r="AG2">
-        <v>2.940295934677124</v>
+        <v>1.521399855613708</v>
       </c>
       <c r="AH2">
-        <v>-12.92368698120117</v>
+        <v>-11.77540397644043</v>
       </c>
       <c r="AI2">
-        <v>-4.938906192779541</v>
+        <v>-3.719587326049805</v>
       </c>
       <c r="AJ2">
-        <v>0.9760721921920776</v>
+        <v>-1.008345007896423</v>
       </c>
       <c r="AK2">
-        <v>2.658160924911499</v>
+        <v>2.084234476089478</v>
       </c>
       <c r="AL2">
-        <v>-2.275662422180176</v>
+        <v>-3.335721969604492</v>
       </c>
       <c r="AM2">
-        <v>6.687005519866943</v>
+        <v>5.946785449981689</v>
       </c>
       <c r="AN2">
-        <v>0.358180969953537</v>
+        <v>0.5313169360160828</v>
       </c>
       <c r="AO2">
-        <v>-1.281678795814514</v>
+        <v>-1.863990068435669</v>
       </c>
       <c r="AP2">
-        <v>-1.88960075378418</v>
+        <v>-3.364197969436646</v>
       </c>
       <c r="AQ2">
-        <v>-0.3560496270656586</v>
+        <v>-0.2602219581604004</v>
       </c>
       <c r="AR2">
-        <v>11.61433887481689</v>
+        <v>11.1364631652832</v>
       </c>
       <c r="AS2">
-        <v>-0.4569156765937805</v>
+        <v>-0.2760812044143677</v>
       </c>
       <c r="AT2">
-        <v>-13.6184139251709</v>
+        <v>-12.7929573059082</v>
       </c>
       <c r="AU2">
-        <v>-13.85365676879883</v>
+        <v>-12.21659183502197</v>
       </c>
       <c r="AV2">
-        <v>1.586716294288635</v>
+        <v>0.8541714549064636</v>
       </c>
       <c r="AW2">
-        <v>-3.713134288787842</v>
+        <v>-2.776177644729614</v>
       </c>
       <c r="AX2">
-        <v>1.648685574531555</v>
+        <v>0.9979239702224731</v>
       </c>
       <c r="AY2">
-        <v>1.803699731826782</v>
+        <v>-0.1757072955369949</v>
       </c>
       <c r="AZ2">
-        <v>3.271366596221924</v>
+        <v>3.452429533004761</v>
       </c>
       <c r="BA2">
-        <v>-4.39281177520752</v>
+        <v>-2.917437553405762</v>
       </c>
       <c r="BB2">
-        <v>5.014824867248535</v>
+        <v>5.827869892120361</v>
       </c>
       <c r="BC2">
-        <v>-0.05645099282264709</v>
+        <v>-1.080778241157532</v>
       </c>
       <c r="BD2">
-        <v>-0.5034822225570679</v>
+        <v>-0.6335574984550476</v>
       </c>
       <c r="BE2">
-        <v>0.2765464186668396</v>
+        <v>-0.1753655970096588</v>
       </c>
       <c r="BF2">
-        <v>-6.440841674804688</v>
+        <v>-7.205796241760254</v>
       </c>
       <c r="BG2">
-        <v>0.1324863582849503</v>
+        <v>0.7285318374633789</v>
       </c>
       <c r="BH2">
-        <v>2.9104905128479</v>
+        <v>1.931666731834412</v>
       </c>
       <c r="BI2">
-        <v>2.816558361053467</v>
+        <v>1.972782850265503</v>
       </c>
       <c r="BJ2">
-        <v>-2.389246940612793</v>
+        <v>-1.310088634490967</v>
       </c>
       <c r="BK2">
-        <v>-1.285632610321045</v>
+        <v>0.03579972684383392</v>
       </c>
       <c r="BL2">
-        <v>10.94135093688965</v>
+        <v>10.40337085723877</v>
       </c>
       <c r="BM2">
-        <v>2.782264232635498</v>
+        <v>1.777806758880615</v>
       </c>
       <c r="BN2">
-        <v>-6.969205379486084</v>
+        <v>-6.635496139526367</v>
       </c>
       <c r="BO2">
-        <v>9.017328262329102</v>
+        <v>8.412295341491699</v>
       </c>
       <c r="BP2">
-        <v>-21.02776336669922</v>
+        <v>-20.3687629699707</v>
       </c>
       <c r="BQ2">
-        <v>-5.381011486053467</v>
+        <v>-5.238903999328613</v>
       </c>
       <c r="BR2">
-        <v>-0.181775763630867</v>
+        <v>0.5090742111206055</v>
       </c>
       <c r="BS2">
-        <v>0.2024513483047485</v>
+        <v>0.2402705550193787</v>
       </c>
       <c r="BT2">
-        <v>-2.518224477767944</v>
+        <v>-3.100625514984131</v>
       </c>
       <c r="BU2">
-        <v>0.3468729555606842</v>
+        <v>1.003252267837524</v>
       </c>
       <c r="BV2">
-        <v>1.716769695281982</v>
+        <v>2.418774604797363</v>
       </c>
       <c r="BW2">
-        <v>-0.5242830514907837</v>
+        <v>-0.7850320935249329</v>
       </c>
       <c r="BX2">
-        <v>-15.6920919418335</v>
+        <v>-17.20378303527832</v>
       </c>
       <c r="BY2">
-        <v>-3.497209310531616</v>
+        <v>-2.125044107437134</v>
       </c>
       <c r="BZ2">
-        <v>-3.847314119338989</v>
+        <v>-4.864915370941162</v>
       </c>
       <c r="CA2">
-        <v>-6.400704860687256</v>
+        <v>-5.127004146575928</v>
       </c>
       <c r="CB2">
-        <v>-7.896364212036133</v>
+        <v>-8.995063781738281</v>
       </c>
       <c r="CC2">
-        <v>1.217038631439209</v>
+        <v>2.114491701126099</v>
       </c>
       <c r="CD2">
-        <v>1.00831663608551</v>
+        <v>-0.672398567199707</v>
       </c>
       <c r="CE2">
-        <v>-7.181492328643799</v>
+        <v>-7.822356224060059</v>
       </c>
       <c r="CF2">
-        <v>-8.323698043823242</v>
+        <v>-8.847853660583496</v>
       </c>
       <c r="CG2">
-        <v>4.760310173034668</v>
+        <v>5.31067943572998</v>
       </c>
       <c r="CH2">
-        <v>-13.4262809753418</v>
+        <v>-12.80256652832031</v>
       </c>
       <c r="CI2">
-        <v>-1.12640655040741</v>
+        <v>-1.14034104347229</v>
       </c>
       <c r="CJ2">
-        <v>-5.53431224822998</v>
+        <v>-3.730688810348511</v>
       </c>
       <c r="CK2">
-        <v>-1.014427781105042</v>
+        <v>-0.6768520474433899</v>
       </c>
       <c r="CL2">
-        <v>-1.040241718292236</v>
+        <v>-2.235499858856201</v>
       </c>
       <c r="CM2">
-        <v>-6.384659767150879</v>
+        <v>-6.070094108581543</v>
       </c>
       <c r="CN2">
-        <v>-1.474546909332275</v>
+        <v>-1.788139581680298</v>
       </c>
       <c r="CO2">
-        <v>1.649418950080872</v>
+        <v>1.327745795249939</v>
       </c>
       <c r="CP2">
-        <v>-1.46809995174408</v>
+        <v>0.4652705490589142</v>
       </c>
       <c r="CQ2">
-        <v>0.04572932422161102</v>
+        <v>0.9056365489959717</v>
       </c>
       <c r="CR2">
-        <v>0.5432806015014648</v>
+        <v>-0.4147338569164276</v>
       </c>
       <c r="CS2">
-        <v>-0.8554030060768127</v>
+        <v>-1.334015488624573</v>
       </c>
       <c r="CT2">
-        <v>-1.019916415214539</v>
+        <v>-0.4549940824508667</v>
       </c>
       <c r="CU2">
-        <v>-3.140625715255737</v>
+        <v>-2.644702911376953</v>
       </c>
       <c r="CV2">
-        <v>-0.868053138256073</v>
+        <v>-1.967727303504944</v>
       </c>
       <c r="CW2">
-        <v>-0.8154883980751038</v>
+        <v>-2.015405416488647</v>
       </c>
       <c r="CX2">
-        <v>-0.9959721565246582</v>
+        <v>-0.5065590739250183</v>
       </c>
       <c r="CY2">
-        <v>-8.133857727050781</v>
+        <v>-6.87039041519165</v>
       </c>
       <c r="CZ2">
-        <v>1.856496691703796</v>
+        <v>0.5146294832229614</v>
       </c>
       <c r="DA2">
-        <v>-7.357219219207764</v>
+        <v>-7.259530544281006</v>
       </c>
       <c r="DB2">
-        <v>-13.62276935577393</v>
+        <v>-13.25947093963623</v>
       </c>
       <c r="DC2">
-        <v>-2.798612117767334</v>
+        <v>-3.390749931335449</v>
       </c>
       <c r="DD2">
-        <v>-16.12043571472168</v>
+        <v>-17.58320999145508</v>
       </c>
       <c r="DE2">
-        <v>2.339543581008911</v>
+        <v>1.530742287635803</v>
       </c>
       <c r="DF2">
-        <v>0.5593861937522888</v>
+        <v>0.1204110011458397</v>
       </c>
       <c r="DG2">
-        <v>0.1721395999193192</v>
+        <v>0.2582593262195587</v>
       </c>
       <c r="DH2">
-        <v>-1.389023423194885</v>
+        <v>-2.601708650588989</v>
       </c>
       <c r="DI2">
-        <v>-0.3668233156204224</v>
+        <v>-0.7483767867088318</v>
       </c>
       <c r="DJ2">
-        <v>16.3685417175293</v>
+        <v>16.8165283203125</v>
       </c>
       <c r="DK2">
-        <v>-19.66425704956055</v>
+        <v>-18.69345664978027</v>
       </c>
       <c r="DL2">
-        <v>-22.04993629455566</v>
+        <v>-22.16879272460938</v>
       </c>
       <c r="DM2">
-        <v>-16.87213897705078</v>
+        <v>-15.16202163696289</v>
       </c>
       <c r="DN2">
-        <v>0.4620295464992523</v>
+        <v>1.017615675926208</v>
       </c>
       <c r="DO2">
-        <v>-10.54216575622559</v>
+        <v>-10.03947353363037</v>
       </c>
       <c r="DP2">
-        <v>-1.798938632011414</v>
+        <v>-2.16788387298584</v>
       </c>
       <c r="DQ2">
-        <v>3.253021478652954</v>
+        <v>2.634942293167114</v>
       </c>
       <c r="DR2">
-        <v>0.07504803687334061</v>
+        <v>-0.486367255449295</v>
       </c>
       <c r="DS2">
-        <v>-13.65162372589111</v>
+        <v>-11.71516799926758</v>
       </c>
       <c r="DT2">
-        <v>-5.756432056427002</v>
+        <v>-6.404116153717041</v>
       </c>
       <c r="DU2">
-        <v>-6.991929054260254</v>
+        <v>-5.755977153778076</v>
       </c>
       <c r="DV2">
-        <v>-1.176528453826904</v>
+        <v>-0.2294053286314011</v>
       </c>
       <c r="DW2">
-        <v>0.150455579161644</v>
+        <v>-0.7710355520248413</v>
       </c>
       <c r="DX2">
-        <v>0.9151555895805359</v>
+        <v>1.340842485427856</v>
       </c>
       <c r="DY2">
-        <v>4.387408256530762</v>
+        <v>6.366962432861328</v>
       </c>
       <c r="DZ2">
-        <v>-2.995959281921387</v>
+        <v>-1.874976754188538</v>
       </c>
       <c r="EA2">
-        <v>-19.96637344360352</v>
+        <v>-17.48479270935059</v>
       </c>
       <c r="EB2">
-        <v>-1.072351217269897</v>
+        <v>-1.229866981506348</v>
       </c>
       <c r="EC2">
-        <v>1.804011583328247</v>
+        <v>0.05875137448310852</v>
       </c>
       <c r="ED2">
-        <v>-1.759936571121216</v>
+        <v>-2.070968627929688</v>
       </c>
       <c r="EE2">
-        <v>-0.9917435646057129</v>
+        <v>-0.9609230160713196</v>
       </c>
       <c r="EF2">
-        <v>0.4660362601280212</v>
+        <v>-0.2227656841278076</v>
       </c>
       <c r="EG2">
-        <v>-6.162614822387695</v>
+        <v>-6.669964790344238</v>
       </c>
       <c r="EH2">
-        <v>-12.12564277648926</v>
+        <v>-14.72172546386719</v>
       </c>
       <c r="EI2">
-        <v>-4.102285861968994</v>
+        <v>-4.985912799835205</v>
       </c>
       <c r="EJ2">
-        <v>-0.2500465214252472</v>
+        <v>-0.5695140957832336</v>
       </c>
       <c r="EK2">
-        <v>-1.19675874710083</v>
+        <v>-1.912610411643982</v>
       </c>
       <c r="EL2">
-        <v>-2.635848999023438</v>
+        <v>-2.865607500076294</v>
       </c>
       <c r="EM2">
-        <v>6.20175313949585</v>
+        <v>7.85698938369751</v>
       </c>
       <c r="EN2">
-        <v>1.220989346504211</v>
+        <v>0.6295116543769836</v>
       </c>
       <c r="EO2">
-        <v>-8.513408660888672</v>
+        <v>-8.348371505737305</v>
       </c>
       <c r="EP2">
-        <v>-8.911996841430664</v>
+        <v>-10.02241230010986</v>
       </c>
       <c r="EQ2">
-        <v>-10.22319984436035</v>
+        <v>-11.83120727539062</v>
       </c>
       <c r="ER2">
-        <v>-3.16662859916687</v>
+        <v>-1.794021010398865</v>
       </c>
       <c r="ES2">
-        <v>-4.743676662445068</v>
+        <v>-4.112823486328125</v>
       </c>
       <c r="ET2">
-        <v>-9.446042060852051</v>
+        <v>-11.36558437347412</v>
       </c>
       <c r="EU2">
-        <v>-10.52340126037598</v>
+        <v>-8.549991607666016</v>
       </c>
       <c r="EV2">
-        <v>-7.599961280822754</v>
+        <v>-8.543708801269531</v>
       </c>
       <c r="EW2">
-        <v>-12.62341022491455</v>
+        <v>-11.33306884765625</v>
       </c>
       <c r="EX2">
-        <v>-10.93819427490234</v>
+        <v>-12.80099964141846</v>
       </c>
       <c r="EY2">
-        <v>1.181127190589905</v>
+        <v>0.6491363048553467</v>
       </c>
       <c r="EZ2">
-        <v>-2.776188135147095</v>
+        <v>-1.773836851119995</v>
       </c>
       <c r="FA2">
-        <v>-0.6604900360107422</v>
+        <v>-1.377034425735474</v>
       </c>
       <c r="FB2">
-        <v>1.027333736419678</v>
+        <v>0.08261105418205261</v>
       </c>
       <c r="FC2">
-        <v>-1.478572130203247</v>
+        <v>-2.503802299499512</v>
       </c>
       <c r="FD2">
-        <v>2.691894769668579</v>
+        <v>1.202517032623291</v>
       </c>
       <c r="FE2">
-        <v>-17.10529136657715</v>
+        <v>-15.46168327331543</v>
       </c>
       <c r="FF2">
-        <v>-4.753659725189209</v>
+        <v>-6.029543399810791</v>
       </c>
       <c r="FG2">
-        <v>-21.94294929504395</v>
+        <v>-21.1392707824707</v>
       </c>
       <c r="FH2">
-        <v>-1.148741006851196</v>
+        <v>-0.2955151796340942</v>
       </c>
       <c r="FI2">
-        <v>1.62593138217926</v>
+        <v>3.56492018699646</v>
       </c>
       <c r="FJ2">
-        <v>-0.5674090385437012</v>
+        <v>-1.451766610145569</v>
       </c>
       <c r="FK2">
-        <v>-9.043737411499023</v>
+        <v>-9.554315567016602</v>
       </c>
       <c r="FL2">
-        <v>-1.194647669792175</v>
+        <v>-0.06021849066019058</v>
       </c>
       <c r="FM2">
-        <v>13.76103019714355</v>
+        <v>16.31700897216797</v>
       </c>
       <c r="FN2">
-        <v>4.88489294052124</v>
+        <v>3.37671422958374</v>
       </c>
       <c r="FO2">
-        <v>-0.0006352803320623934</v>
+        <v>0.07544942945241928</v>
       </c>
       <c r="FP2">
-        <v>-0.5816994905471802</v>
+        <v>-0.240538015961647</v>
       </c>
       <c r="FQ2">
-        <v>-0.2779859006404877</v>
+        <v>-0.4047973155975342</v>
       </c>
       <c r="FR2">
-        <v>0.1462244838476181</v>
+        <v>-0.7507861256599426</v>
       </c>
       <c r="FS2">
-        <v>0.07073107361793518</v>
+        <v>-0.3186137974262238</v>
       </c>
       <c r="FT2">
-        <v>1.269103527069092</v>
+        <v>1.464717268943787</v>
       </c>
       <c r="FU2">
-        <v>-3.900900602340698</v>
+        <v>-4.382792472839355</v>
       </c>
       <c r="FV2">
-        <v>-0.3202316462993622</v>
+        <v>0.1661724597215652</v>
       </c>
       <c r="FW2">
-        <v>1.055581569671631</v>
+        <v>-0.3352982699871063</v>
       </c>
       <c r="FX2">
-        <v>-1.569489598274231</v>
+        <v>-1.463867425918579</v>
       </c>
       <c r="FY2">
-        <v>-1.661752343177795</v>
+        <v>-1.590100049972534</v>
       </c>
       <c r="FZ2">
-        <v>-2.50028657913208</v>
+        <v>-3.796099424362183</v>
       </c>
       <c r="GA2">
-        <v>3.040868043899536</v>
+        <v>2.92785906791687</v>
       </c>
       <c r="GB2">
-        <v>-0.7526575326919556</v>
+        <v>0.3204808235168457</v>
       </c>
       <c r="GC2">
-        <v>1.378095388412476</v>
+        <v>1.627591729164124</v>
       </c>
       <c r="GD2">
-        <v>9.726459503173828</v>
+        <v>9.067621231079102</v>
       </c>
       <c r="GE2">
-        <v>0.07549507915973663</v>
+        <v>-0.2283235937356949</v>
       </c>
       <c r="GF2">
-        <v>-9.167167663574219</v>
+        <v>-11.13000011444092</v>
       </c>
       <c r="GG2">
-        <v>-8.378414154052734</v>
+        <v>-9.89974308013916</v>
       </c>
       <c r="GH2">
-        <v>0.04267413541674614</v>
+        <v>-0.618926465511322</v>
       </c>
       <c r="GI2">
-        <v>-2.532790899276733</v>
+        <v>-1.680724740028381</v>
       </c>
       <c r="GJ2">
-        <v>0.4853926301002502</v>
+        <v>-0.1285336464643478</v>
       </c>
       <c r="GK2">
-        <v>-0.8922451734542847</v>
+        <v>0.587292492389679</v>
       </c>
       <c r="GL2">
-        <v>-8.980663299560547</v>
+        <v>-7.391276359558105</v>
       </c>
       <c r="GM2">
-        <v>-9.572773933410645</v>
+        <v>-9.982922554016113</v>
       </c>
       <c r="GN2">
-        <v>2.065585613250732</v>
+        <v>3.198779821395874</v>
       </c>
       <c r="GO2">
-        <v>3.242298126220703</v>
+        <v>1.446822643280029</v>
       </c>
       <c r="GP2">
-        <v>2.270036935806274</v>
+        <v>1.838847041130066</v>
       </c>
       <c r="GQ2">
-        <v>-2.623192071914673</v>
+        <v>-3.105587720870972</v>
       </c>
       <c r="GR2">
-        <v>-1.530344486236572</v>
+        <v>-0.4365130960941315</v>
       </c>
       <c r="GS2">
-        <v>8.502245903015137</v>
+        <v>8.649645805358887</v>
       </c>
       <c r="GT2">
-        <v>-0.1182093992829323</v>
+        <v>0.1421779990196228</v>
       </c>
       <c r="GU2">
-        <v>-4.258148670196533</v>
+        <v>-3.501748561859131</v>
       </c>
       <c r="GV2">
-        <v>0.2645681798458099</v>
+        <v>-1.009750366210938</v>
       </c>
       <c r="GW2">
-        <v>5.476601600646973</v>
+        <v>5.552737712860107</v>
       </c>
       <c r="GX2">
-        <v>-2.060867547988892</v>
+        <v>-2.58825159072876</v>
       </c>
       <c r="GY2">
-        <v>-1.803767085075378</v>
+        <v>-1.711590647697449</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Information Technology.xlsx
+++ b/static/Models/Classification/Equation/Information Technology.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.312095642089844</v>
+        <v>2.774340867996216</v>
       </c>
       <c r="C2" t="n">
-        <v>-20.31486511230469</v>
+        <v>-19.71240234375</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.904000282287598</v>
+        <v>-4.359268188476562</v>
       </c>
       <c r="E2" t="n">
-        <v>3.91008186340332</v>
+        <v>3.329667806625366</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.374591588973999</v>
+        <v>-1.064404606819153</v>
       </c>
       <c r="G2" t="n">
-        <v>7.438535213470459</v>
+        <v>8.055033683776855</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08488661795854568</v>
+        <v>-0.7791417241096497</v>
       </c>
       <c r="I2" t="n">
-        <v>0.672372043132782</v>
+        <v>-0.2338075786828995</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.424276351928711</v>
+        <v>-7.28357982635498</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5145183801651001</v>
+        <v>0.1166242063045502</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.18375825881958</v>
+        <v>-3.336866617202759</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.136200785636902</v>
+        <v>-1.736073613166809</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.303906679153442</v>
+        <v>-1.816495060920715</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.26431941986084</v>
+        <v>-4.739259243011475</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.243318676948547</v>
+        <v>-1.876595854759216</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.77365875244141</v>
+        <v>13.50642871856689</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.596450328826904</v>
+        <v>-2.026254177093506</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.915125846862793</v>
+        <v>-8.486948013305664</v>
       </c>
       <c r="T2" t="n">
-        <v>1.779953837394714</v>
+        <v>1.165071964263916</v>
       </c>
       <c r="U2" t="n">
-        <v>-10.45677661895752</v>
+        <v>-11.09982299804688</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.078184485435486</v>
+        <v>-0.571329653263092</v>
       </c>
       <c r="W2" t="n">
-        <v>-10.91611099243164</v>
+        <v>-10.29159736633301</v>
       </c>
       <c r="X2" t="n">
-        <v>3.757014989852905</v>
+        <v>4.048153877258301</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.103030681610107</v>
+        <v>-6.620419979095459</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.179670810699463</v>
+        <v>3.595443964004517</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.155958503484726</v>
+        <v>0.7258415818214417</v>
       </c>
       <c r="AB2" t="n">
-        <v>-5.381279468536377</v>
+        <v>-6.01408576965332</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.512441635131836</v>
+        <v>-9.241596221923828</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.34563410282135</v>
+        <v>-1.02510941028595</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.894780516624451</v>
+        <v>-2.318066358566284</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.306628942489624</v>
+        <v>-2.887732744216919</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.830671191215515</v>
+        <v>1.208160877227783</v>
       </c>
       <c r="AH2" t="n">
-        <v>-11.4655704498291</v>
+        <v>-11.23075675964355</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.229868412017822</v>
+        <v>-4.910576343536377</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5747348070144653</v>
+        <v>-0.1314937770366669</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.866736888885498</v>
+        <v>2.391098737716675</v>
       </c>
       <c r="AL2" t="n">
-        <v>-4.115778923034668</v>
+        <v>-3.710099935531616</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.624175548553467</v>
+        <v>5.018780708312988</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.9125972986221313</v>
+        <v>1.448856711387634</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.37368631362915</v>
+        <v>-2.936252117156982</v>
       </c>
       <c r="AP2" t="n">
-        <v>-3.522265434265137</v>
+        <v>-3.654277801513672</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.1680383831262589</v>
+        <v>-0.3971333503723145</v>
       </c>
       <c r="AR2" t="n">
-        <v>11.43169689178467</v>
+        <v>11.12816905975342</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.08499923348426819</v>
+        <v>0.6282546520233154</v>
       </c>
       <c r="AT2" t="n">
-        <v>-12.38317966461182</v>
+        <v>-12.839186668396</v>
       </c>
       <c r="AU2" t="n">
-        <v>-12.54356861114502</v>
+        <v>-12.71340942382812</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.09037321805953979</v>
+        <v>0.3399316668510437</v>
       </c>
       <c r="AW2" t="n">
-        <v>-3.095704078674316</v>
+        <v>-2.415923357009888</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.333588004112244</v>
+        <v>0.6303743124008179</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.5279792547225952</v>
+        <v>0.05521675944328308</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.196571350097656</v>
+        <v>4.588989734649658</v>
       </c>
       <c r="BA2" t="n">
-        <v>-2.305535793304443</v>
+        <v>-1.869212627410889</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.511513710021973</v>
+        <v>6.181157112121582</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.402938842773438</v>
+        <v>-1.182990908622742</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.055837869644165</v>
+        <v>-0.6769474148750305</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.1736137717962265</v>
+        <v>-0.3217135965824127</v>
       </c>
       <c r="BF2" t="n">
-        <v>-7.539321422576904</v>
+        <v>-6.946824073791504</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.8097347021102905</v>
+        <v>0.3072888255119324</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.564826250076294</v>
+        <v>0.7384283542633057</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.275859355926514</v>
+        <v>1.722390174865723</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.879250168800354</v>
+        <v>-0.441821426153183</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.2941073477268219</v>
+        <v>0.7662569284439087</v>
       </c>
       <c r="BL2" t="n">
-        <v>10.41493034362793</v>
+        <v>10.6863899230957</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.07054591178894</v>
+        <v>1.516164183616638</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.302906036376953</v>
+        <v>-6.881118297576904</v>
       </c>
       <c r="BO2" t="n">
-        <v>8.069605827331543</v>
+        <v>8.67744255065918</v>
       </c>
       <c r="BP2" t="n">
-        <v>-20.132568359375</v>
+        <v>-20.67333221435547</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-5.358112335205078</v>
+        <v>-4.879648685455322</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.1452157497406006</v>
+        <v>0.7946087718009949</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.09666687995195389</v>
+        <v>0.5543989539146423</v>
       </c>
       <c r="BT2" t="n">
-        <v>-3.390057802200317</v>
+        <v>-2.847388029098511</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.308563113212585</v>
+        <v>0.9394415616989136</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.709044456481934</v>
+        <v>3.420047760009766</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.180121421813965</v>
+        <v>-1.730452060699463</v>
       </c>
       <c r="BX2" t="n">
-        <v>-16.8836784362793</v>
+        <v>-17.73441696166992</v>
       </c>
       <c r="BY2" t="n">
-        <v>-2.481615781784058</v>
+        <v>-2.803235530853271</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-4.551868438720703</v>
+        <v>-5.230865955352783</v>
       </c>
       <c r="CA2" t="n">
-        <v>-5.452402591705322</v>
+        <v>-5.953556060791016</v>
       </c>
       <c r="CB2" t="n">
-        <v>-8.603489875793457</v>
+        <v>-7.961028575897217</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.267150163650513</v>
+        <v>1.599905490875244</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.2372402101755142</v>
+        <v>-0.08628790080547333</v>
       </c>
       <c r="CE2" t="n">
-        <v>-8.224800109863281</v>
+        <v>-8.716743469238281</v>
       </c>
       <c r="CF2" t="n">
-        <v>-8.494543075561523</v>
+        <v>-9.18779468536377</v>
       </c>
       <c r="CG2" t="n">
-        <v>5.659004688262939</v>
+        <v>6.221047401428223</v>
       </c>
       <c r="CH2" t="n">
-        <v>-12.65639305114746</v>
+        <v>-13.15541172027588</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.490458846092224</v>
+        <v>-1.012246966362</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-3.405356407165527</v>
+        <v>-4.017942905426025</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.5358874201774597</v>
+        <v>-0.1137441620230675</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.925598621368408</v>
+        <v>-1.912039875984192</v>
       </c>
       <c r="CM2" t="n">
-        <v>-5.686355113983154</v>
+        <v>-5.189271450042725</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.512681841850281</v>
+        <v>-0.7205384373664856</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.9431505799293518</v>
+        <v>1.546408295631409</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.09242316335439682</v>
+        <v>0.8546043038368225</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.6296684145927429</v>
+        <v>1.111033797264099</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.02777736261487007</v>
+        <v>0.5264288783073425</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.708248138427734</v>
+        <v>-1.205323338508606</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.1776887029409409</v>
+        <v>-0.8610660433769226</v>
       </c>
       <c r="CU2" t="n">
-        <v>-3.027765274047852</v>
+        <v>-2.369920969009399</v>
       </c>
       <c r="CV2" t="n">
-        <v>-1.575632095336914</v>
+        <v>-0.993024468421936</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.693120718002319</v>
+        <v>-1.214215993881226</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.1431093364953995</v>
+        <v>0.6599490642547607</v>
       </c>
       <c r="CY2" t="n">
-        <v>-7.198121547698975</v>
+        <v>-7.646893978118896</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2832156121730804</v>
+        <v>0.8436815738677979</v>
       </c>
       <c r="DA2" t="n">
-        <v>-7.571999073028564</v>
+        <v>-7.96445894241333</v>
       </c>
       <c r="DB2" t="n">
-        <v>-12.8647346496582</v>
+        <v>-12.43991470336914</v>
       </c>
       <c r="DC2" t="n">
-        <v>-3.325277090072632</v>
+        <v>-2.829669713973999</v>
       </c>
       <c r="DD2" t="n">
-        <v>-17.26017379760742</v>
+        <v>-18.04800987243652</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.552714347839355</v>
+        <v>2.095803260803223</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.4200320839881897</v>
+        <v>-0.3279958069324493</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.6265631318092346</v>
+        <v>0.05639377981424332</v>
       </c>
       <c r="DH2" t="n">
-        <v>-2.982543706893921</v>
+        <v>-2.701647520065308</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.156160235404968</v>
+        <v>-1.694218754768372</v>
       </c>
       <c r="DJ2" t="n">
-        <v>17.13696670532227</v>
+        <v>17.734130859375</v>
       </c>
       <c r="DK2" t="n">
-        <v>-18.36457061767578</v>
+        <v>-17.71682357788086</v>
       </c>
       <c r="DL2" t="n">
-        <v>-21.82309341430664</v>
+        <v>-21.31801605224609</v>
       </c>
       <c r="DM2" t="n">
-        <v>-14.8347692489624</v>
+        <v>-14.49992275238037</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.6745263338088989</v>
+        <v>-0.00564946373924613</v>
       </c>
       <c r="DO2" t="n">
-        <v>-10.43768978118896</v>
+        <v>-11.04291534423828</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.053515911102295</v>
+        <v>-2.31254768371582</v>
       </c>
       <c r="DQ2" t="n">
-        <v>3.012547969818115</v>
+        <v>3.561920404434204</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.132661297917366</v>
+        <v>-0.7912216186523438</v>
       </c>
       <c r="DS2" t="n">
-        <v>-12.08641147613525</v>
+        <v>-12.27031517028809</v>
       </c>
       <c r="DT2" t="n">
-        <v>-6.061198711395264</v>
+        <v>-6.621928691864014</v>
       </c>
       <c r="DU2" t="n">
-        <v>-5.403246402740479</v>
+        <v>-5.878949165344238</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.4328285455703735</v>
+        <v>0.04551039636135101</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.15733802318573</v>
+        <v>-1.026285648345947</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.585917711257935</v>
+        <v>0.9075949788093567</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.700151443481445</v>
+        <v>6.085013866424561</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-2.322563171386719</v>
+        <v>-2.04621696472168</v>
       </c>
       <c r="EA2" t="n">
-        <v>-17.21262359619141</v>
+        <v>-17.82050514221191</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.9763330221176147</v>
+        <v>-0.4824291169643402</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.3479517698287964</v>
+        <v>0.4414066672325134</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.766793608665466</v>
+        <v>-2.363184690475464</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.308544158935547</v>
+        <v>-0.7798054218292236</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1142337843775749</v>
+        <v>-0.5741992592811584</v>
       </c>
       <c r="EG2" t="n">
-        <v>-6.988495826721191</v>
+        <v>-7.192392826080322</v>
       </c>
       <c r="EH2" t="n">
-        <v>-14.33578205108643</v>
+        <v>-15.02673530578613</v>
       </c>
       <c r="EI2" t="n">
-        <v>-4.681220531463623</v>
+        <v>-5.331056594848633</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.9428178071975708</v>
+        <v>-0.5562896728515625</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.593764305114746</v>
+        <v>-1.199342727661133</v>
       </c>
       <c r="EL2" t="n">
-        <v>-2.600667238235474</v>
+        <v>-3.106016874313354</v>
       </c>
       <c r="EM2" t="n">
-        <v>8.227419853210449</v>
+        <v>7.627996444702148</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.174536794424057</v>
+        <v>-0.4198459684848785</v>
       </c>
       <c r="EO2" t="n">
-        <v>-7.986819267272949</v>
+        <v>-7.299283981323242</v>
       </c>
       <c r="EP2" t="n">
-        <v>-9.696307182312012</v>
+        <v>-10.58773326873779</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-12.34333038330078</v>
+        <v>-11.80205726623535</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.554483890533447</v>
+        <v>-2.039136171340942</v>
       </c>
       <c r="ES2" t="n">
-        <v>-4.468309879302979</v>
+        <v>-4.848018169403076</v>
       </c>
       <c r="ET2" t="n">
-        <v>-11.92001438140869</v>
+        <v>-12.61229991912842</v>
       </c>
       <c r="EU2" t="n">
-        <v>-8.18636417388916</v>
+        <v>-8.881226539611816</v>
       </c>
       <c r="EV2" t="n">
-        <v>-8.922215461730957</v>
+        <v>-8.71158504486084</v>
       </c>
       <c r="EW2" t="n">
-        <v>-11.00015830993652</v>
+        <v>-10.59050464630127</v>
       </c>
       <c r="EX2" t="n">
-        <v>-13.14383506774902</v>
+        <v>-12.51857280731201</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.9947127103805542</v>
+        <v>1.283430218696594</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.434916734695435</v>
+        <v>-2.177958965301514</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.9761256575584412</v>
+        <v>-1.618405699729919</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.2608059644699097</v>
+        <v>0.2967737019062042</v>
       </c>
       <c r="FC2" t="n">
-        <v>-2.790362119674683</v>
+        <v>-3.510411262512207</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.944517195224762</v>
+        <v>1.516963601112366</v>
       </c>
       <c r="FE2" t="n">
-        <v>-15.85140419006348</v>
+        <v>-16.70860290527344</v>
       </c>
       <c r="FF2" t="n">
-        <v>-5.708541393280029</v>
+        <v>-6.425758361816406</v>
       </c>
       <c r="FG2" t="n">
-        <v>-20.84861755371094</v>
+        <v>-21.47663688659668</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.6794735789299011</v>
+        <v>-0.1306454390287399</v>
       </c>
       <c r="FI2" t="n">
-        <v>3.199712038040161</v>
+        <v>3.181946754455566</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-1.212133407592773</v>
+        <v>-1.833502292633057</v>
       </c>
       <c r="FK2" t="n">
-        <v>-9.967191696166992</v>
+        <v>-9.01555347442627</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.1066609993577003</v>
+        <v>-0.477422684431076</v>
       </c>
       <c r="FM2" t="n">
-        <v>16.7161808013916</v>
+        <v>16.18178176879883</v>
       </c>
       <c r="FN2" t="n">
-        <v>3.71663236618042</v>
+        <v>3.145875453948975</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.2983422875404358</v>
+        <v>-0.1136588975787163</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.4869940280914307</v>
+        <v>-0.3615726828575134</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.1296917647123337</v>
+        <v>0.2796474993228912</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.3404243886470795</v>
+        <v>0.2161727100610733</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.003085174364969134</v>
+        <v>-0.8112473487854004</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.066187858581543</v>
+        <v>0.7358415126800537</v>
       </c>
       <c r="FU2" t="n">
-        <v>-4.058290481567383</v>
+        <v>-4.6417236328125</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.4295012056827545</v>
+        <v>0.7091736793518066</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.02367719262838364</v>
+        <v>-0.6728600263595581</v>
       </c>
       <c r="FX2" t="n">
-        <v>-1.822944283485413</v>
+        <v>-2.377719163894653</v>
       </c>
       <c r="FY2" t="n">
-        <v>-1.222885847091675</v>
+        <v>-1.854795098304749</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-3.425844669342041</v>
+        <v>-2.781696319580078</v>
       </c>
       <c r="GA2" t="n">
-        <v>3.278085231781006</v>
+        <v>2.486056327819824</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.7412025928497314</v>
+        <v>0.4821198880672455</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.777555346488953</v>
+        <v>2.396737813949585</v>
       </c>
       <c r="GD2" t="n">
-        <v>8.828836441040039</v>
+        <v>9.304662704467773</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.05637287348508835</v>
+        <v>-0.4608393311500549</v>
       </c>
       <c r="GF2" t="n">
-        <v>-10.69581317901611</v>
+        <v>-11.55878639221191</v>
       </c>
       <c r="GG2" t="n">
-        <v>-9.508063316345215</v>
+        <v>-10.12632656097412</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.9308110475540161</v>
+        <v>-1.497379899024963</v>
       </c>
       <c r="GI2" t="n">
-        <v>-2.169558763504028</v>
+        <v>-2.623009204864502</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.4865398108959198</v>
+        <v>-0.773663341999054</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.07600413262844086</v>
+        <v>-0.5669767260551453</v>
       </c>
       <c r="GL2" t="n">
-        <v>-7.069641590118408</v>
+        <v>-7.481656551361084</v>
       </c>
       <c r="GM2" t="n">
-        <v>-10.33436298370361</v>
+        <v>-10.59578132629395</v>
       </c>
       <c r="GN2" t="n">
-        <v>3.631895780563354</v>
+        <v>4.181879997253418</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.746184706687927</v>
+        <v>2.395504474639893</v>
       </c>
       <c r="GP2" t="n">
-        <v>2.122123241424561</v>
+        <v>2.402694702148438</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-2.719760894775391</v>
+        <v>-3.045706033706665</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.1194951757788658</v>
+        <v>-0.3215898871421814</v>
       </c>
       <c r="GS2" t="n">
-        <v>8.970467567443848</v>
+        <v>8.330658912658691</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.2250142395496368</v>
+        <v>-0.7037099599838257</v>
       </c>
       <c r="GU2" t="n">
-        <v>-3.803170204162598</v>
+        <v>-3.128119230270386</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.282210946083069</v>
+        <v>-1.592568635940552</v>
       </c>
       <c r="GW2" t="n">
-        <v>5.076338768005371</v>
+        <v>4.583259105682373</v>
       </c>
       <c r="GX2" t="n">
-        <v>-3.375394344329834</v>
+        <v>-2.979301691055298</v>
       </c>
       <c r="GY2" t="n">
-        <v>-2.296918630599976</v>
+        <v>-1.958303332328796</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Information Technology.xlsx
+++ b/static/Models/Classification/Equation/Information Technology.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.774340867996216</v>
+        <v>2.757141828536987</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.71240234375</v>
+        <v>-19.24530410766602</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.359268188476562</v>
+        <v>-4.046177387237549</v>
       </c>
       <c r="E2" t="n">
-        <v>3.329667806625366</v>
+        <v>2.238670825958252</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.064404606819153</v>
+        <v>-1.822234272956848</v>
       </c>
       <c r="G2" t="n">
-        <v>8.055033683776855</v>
+        <v>7.337906837463379</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7791417241096497</v>
+        <v>-1.514872908592224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2338075786828995</v>
+        <v>0.2892479300498962</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.28357982635498</v>
+        <v>-6.698270320892334</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1166242063045502</v>
+        <v>0.810593843460083</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.336866617202759</v>
+        <v>-2.092698574066162</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.736073613166809</v>
+        <v>-1.517681121826172</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.816495060920715</v>
+        <v>-1.309055924415588</v>
       </c>
       <c r="O2" t="n">
-        <v>-4.739259243011475</v>
+        <v>-3.834627628326416</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.876595854759216</v>
+        <v>-1.252184987068176</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.50642871856689</v>
+        <v>14.16412258148193</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.026254177093506</v>
+        <v>-1.20823872089386</v>
       </c>
       <c r="S2" t="n">
-        <v>-8.486948013305664</v>
+        <v>-8.112930297851562</v>
       </c>
       <c r="T2" t="n">
-        <v>1.165071964263916</v>
+        <v>1.422231674194336</v>
       </c>
       <c r="U2" t="n">
-        <v>-11.09982299804688</v>
+        <v>-11.37092113494873</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.571329653263092</v>
+        <v>-1.338840126991272</v>
       </c>
       <c r="W2" t="n">
-        <v>-10.29159736633301</v>
+        <v>-9.550066947937012</v>
       </c>
       <c r="X2" t="n">
-        <v>4.048153877258301</v>
+        <v>3.591143369674683</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.620419979095459</v>
+        <v>-6.549269676208496</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.595443964004517</v>
+        <v>4.289643287658691</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7258415818214417</v>
+        <v>-0.2980518639087677</v>
       </c>
       <c r="AB2" t="n">
-        <v>-6.01408576965332</v>
+        <v>-6.763040065765381</v>
       </c>
       <c r="AC2" t="n">
-        <v>-9.241596221923828</v>
+        <v>-8.519772529602051</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.02510941028595</v>
+        <v>-0.7089129090309143</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.318066358566284</v>
+        <v>-1.580474734306335</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.887732744216919</v>
+        <v>-2.515551090240479</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.208160877227783</v>
+        <v>1.700744390487671</v>
       </c>
       <c r="AH2" t="n">
-        <v>-11.23075675964355</v>
+        <v>-10.60242652893066</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.910576343536377</v>
+        <v>-4.555974006652832</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.1314937770366669</v>
+        <v>-0.7886264324188232</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.391098737716675</v>
+        <v>1.316488862037659</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.710099935531616</v>
+        <v>-2.703394174575806</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.018780708312988</v>
+        <v>4.158622741699219</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.448856711387634</v>
+        <v>2.27405834197998</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.936252117156982</v>
+        <v>-3.238141536712646</v>
       </c>
       <c r="AP2" t="n">
-        <v>-3.654277801513672</v>
+        <v>-3.97983193397522</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.3971333503723145</v>
+        <v>-1.567690014839172</v>
       </c>
       <c r="AR2" t="n">
-        <v>11.12816905975342</v>
+        <v>10.17992496490479</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.6282546520233154</v>
+        <v>1.182409048080444</v>
       </c>
       <c r="AT2" t="n">
-        <v>-12.839186668396</v>
+        <v>-12.22752094268799</v>
       </c>
       <c r="AU2" t="n">
-        <v>-12.71340942382812</v>
+        <v>-13.13744163513184</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.3399316668510437</v>
+        <v>-0.1143973991274834</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.415923357009888</v>
+        <v>-2.723364591598511</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.6303743124008179</v>
+        <v>0.4098853766918182</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.05521675944328308</v>
+        <v>0.97036212682724</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.588989734649658</v>
+        <v>3.593308210372925</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.869212627410889</v>
+        <v>-1.153935670852661</v>
       </c>
       <c r="BB2" t="n">
-        <v>6.181157112121582</v>
+        <v>6.877420902252197</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.182990908622742</v>
+        <v>-0.2113863527774811</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.6769474148750305</v>
+        <v>-0.3727945983409882</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.3217135965824127</v>
+        <v>-0.5155360698699951</v>
       </c>
       <c r="BF2" t="n">
-        <v>-6.946824073791504</v>
+        <v>-6.475450992584229</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.3072888255119324</v>
+        <v>0.7097316980361938</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.7384283542633057</v>
+        <v>0.6624006032943726</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.722390174865723</v>
+        <v>2.055601835250854</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.441821426153183</v>
+        <v>-0.9124852418899536</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.7662569284439087</v>
+        <v>1.140994310379028</v>
       </c>
       <c r="BL2" t="n">
-        <v>10.6863899230957</v>
+        <v>10.8204927444458</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.516164183616638</v>
+        <v>1.865960597991943</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.881118297576904</v>
+        <v>-5.988065242767334</v>
       </c>
       <c r="BO2" t="n">
-        <v>8.67744255065918</v>
+        <v>9.654126167297363</v>
       </c>
       <c r="BP2" t="n">
-        <v>-20.67333221435547</v>
+        <v>-21.16529273986816</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-4.879648685455322</v>
+        <v>-4.263068199157715</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.7946087718009949</v>
+        <v>0.1718796491622925</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.5543989539146423</v>
+        <v>0.1024291887879372</v>
       </c>
       <c r="BT2" t="n">
-        <v>-2.847388029098511</v>
+        <v>-3.815329790115356</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.9394415616989136</v>
+        <v>1.430211663246155</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.420047760009766</v>
+        <v>2.5802903175354</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.730452060699463</v>
+        <v>-2.543447494506836</v>
       </c>
       <c r="BX2" t="n">
-        <v>-17.73441696166992</v>
+        <v>-17.21778678894043</v>
       </c>
       <c r="BY2" t="n">
-        <v>-2.803235530853271</v>
+        <v>-2.530364990234375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-5.230865955352783</v>
+        <v>-4.639841556549072</v>
       </c>
       <c r="CA2" t="n">
-        <v>-5.953556060791016</v>
+        <v>-6.164855480194092</v>
       </c>
       <c r="CB2" t="n">
-        <v>-7.961028575897217</v>
+        <v>-7.060632228851318</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.599905490875244</v>
+        <v>2.194188117980957</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.08628790080547333</v>
+        <v>-0.9580074548721313</v>
       </c>
       <c r="CE2" t="n">
-        <v>-8.716743469238281</v>
+        <v>-9.559806823730469</v>
       </c>
       <c r="CF2" t="n">
-        <v>-9.18779468536377</v>
+        <v>-8.7618408203125</v>
       </c>
       <c r="CG2" t="n">
-        <v>6.221047401428223</v>
+        <v>5.44408655166626</v>
       </c>
       <c r="CH2" t="n">
-        <v>-13.15541172027588</v>
+        <v>-12.97249794006348</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.012246966362</v>
+        <v>-0.7105948328971863</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-4.017942905426025</v>
+        <v>-4.230500221252441</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.1137441620230675</v>
+        <v>0.3794516921043396</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.912039875984192</v>
+        <v>-1.425153017044067</v>
       </c>
       <c r="CM2" t="n">
-        <v>-5.189271450042725</v>
+        <v>-4.640960693359375</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.7205384373664856</v>
+        <v>-1.463055968284607</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.546408295631409</v>
+        <v>1.83012068271637</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.8546043038368225</v>
+        <v>2.029297828674316</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.111033797264099</v>
+        <v>1.591797709465027</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.5264288783073425</v>
+        <v>-0.09841817617416382</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.205323338508606</v>
+        <v>-1.003588438034058</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.8610660433769226</v>
+        <v>-0.2765019536018372</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.369920969009399</v>
+        <v>-1.476288080215454</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.993024468421936</v>
+        <v>-1.698055982589722</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.214215993881226</v>
+        <v>-0.8245764374732971</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.6599490642547607</v>
+        <v>0.6472420692443848</v>
       </c>
       <c r="CY2" t="n">
-        <v>-7.646893978118896</v>
+        <v>-7.498818397521973</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.8436815738677979</v>
+        <v>-0.085676409304142</v>
       </c>
       <c r="DA2" t="n">
-        <v>-7.96445894241333</v>
+        <v>-7.483044624328613</v>
       </c>
       <c r="DB2" t="n">
-        <v>-12.43991470336914</v>
+        <v>-11.82109260559082</v>
       </c>
       <c r="DC2" t="n">
-        <v>-2.829669713973999</v>
+        <v>-3.361908912658691</v>
       </c>
       <c r="DD2" t="n">
-        <v>-18.04800987243652</v>
+        <v>-17.5629768371582</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.095803260803223</v>
+        <v>2.154720783233643</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.3279958069324493</v>
+        <v>0.009761475026607513</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.05639377981424332</v>
+        <v>-0.6512107849121094</v>
       </c>
       <c r="DH2" t="n">
-        <v>-2.701647520065308</v>
+        <v>-2.078605651855469</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.694218754768372</v>
+        <v>-1.847622632980347</v>
       </c>
       <c r="DJ2" t="n">
-        <v>17.734130859375</v>
+        <v>18.18103981018066</v>
       </c>
       <c r="DK2" t="n">
-        <v>-17.71682357788086</v>
+        <v>-17.20378684997559</v>
       </c>
       <c r="DL2" t="n">
-        <v>-21.31801605224609</v>
+        <v>-22.12246704101562</v>
       </c>
       <c r="DM2" t="n">
-        <v>-14.49992275238037</v>
+        <v>-13.7247257232666</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.00564946373924613</v>
+        <v>0.3637862801551819</v>
       </c>
       <c r="DO2" t="n">
-        <v>-11.04291534423828</v>
+        <v>-10.68058586120605</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.31254768371582</v>
+        <v>-2.268024682998657</v>
       </c>
       <c r="DQ2" t="n">
-        <v>3.561920404434204</v>
+        <v>3.69450569152832</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.7912216186523438</v>
+        <v>-1.268851757049561</v>
       </c>
       <c r="DS2" t="n">
-        <v>-12.27031517028809</v>
+        <v>-12.22847175598145</v>
       </c>
       <c r="DT2" t="n">
-        <v>-6.621928691864014</v>
+        <v>-5.909570217132568</v>
       </c>
       <c r="DU2" t="n">
-        <v>-5.878949165344238</v>
+        <v>-6.631216049194336</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.04551039636135101</v>
+        <v>0.3987009823322296</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.026285648345947</v>
+        <v>0.05403329432010651</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.9075949788093567</v>
+        <v>1.25784969329834</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.085013866424561</v>
+        <v>5.55048942565918</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-2.04621696472168</v>
+        <v>-3.088487148284912</v>
       </c>
       <c r="EA2" t="n">
-        <v>-17.82050514221191</v>
+        <v>-18.02011680603027</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.4824291169643402</v>
+        <v>-0.2779009640216827</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.4414066672325134</v>
+        <v>-0.5163288116455078</v>
       </c>
       <c r="ED2" t="n">
-        <v>-2.363184690475464</v>
+        <v>-2.10553503036499</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.7798054218292236</v>
+        <v>-0.6348379254341125</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.5741992592811584</v>
+        <v>-0.7282395362854004</v>
       </c>
       <c r="EG2" t="n">
-        <v>-7.192392826080322</v>
+        <v>-8.156379699707031</v>
       </c>
       <c r="EH2" t="n">
-        <v>-15.02673530578613</v>
+        <v>-15.25153255462646</v>
       </c>
       <c r="EI2" t="n">
-        <v>-5.331056594848633</v>
+        <v>-4.530045509338379</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.5562896728515625</v>
+        <v>-1.48328423500061</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.199342727661133</v>
+        <v>-0.8153454065322876</v>
       </c>
       <c r="EL2" t="n">
-        <v>-3.106016874313354</v>
+        <v>-2.78887939453125</v>
       </c>
       <c r="EM2" t="n">
-        <v>7.627996444702148</v>
+        <v>6.694570541381836</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.4198459684848785</v>
+        <v>-1.147743821144104</v>
       </c>
       <c r="EO2" t="n">
-        <v>-7.299283981323242</v>
+        <v>-7.879868507385254</v>
       </c>
       <c r="EP2" t="n">
-        <v>-10.58773326873779</v>
+        <v>-10.30357265472412</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-11.80205726623535</v>
+        <v>-11.2205810546875</v>
       </c>
       <c r="ER2" t="n">
-        <v>-2.039136171340942</v>
+        <v>-1.230599641799927</v>
       </c>
       <c r="ES2" t="n">
-        <v>-4.848018169403076</v>
+        <v>-5.140781402587891</v>
       </c>
       <c r="ET2" t="n">
-        <v>-12.61229991912842</v>
+        <v>-12.71238613128662</v>
       </c>
       <c r="EU2" t="n">
-        <v>-8.881226539611816</v>
+        <v>-8.345949172973633</v>
       </c>
       <c r="EV2" t="n">
-        <v>-8.71158504486084</v>
+        <v>-8.284244537353516</v>
       </c>
       <c r="EW2" t="n">
-        <v>-10.59050464630127</v>
+        <v>-11.58840560913086</v>
       </c>
       <c r="EX2" t="n">
-        <v>-12.51857280731201</v>
+        <v>-11.73171615600586</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.283430218696594</v>
+        <v>1.544762372970581</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-2.177958965301514</v>
+        <v>-3.132853507995605</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.618405699729919</v>
+        <v>-0.9260166883468628</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.2967737019062042</v>
+        <v>0.4343888461589813</v>
       </c>
       <c r="FC2" t="n">
-        <v>-3.510411262512207</v>
+        <v>-2.843532800674438</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.516963601112366</v>
+        <v>0.5042994022369385</v>
       </c>
       <c r="FE2" t="n">
-        <v>-16.70860290527344</v>
+        <v>-17.46392631530762</v>
       </c>
       <c r="FF2" t="n">
-        <v>-6.425758361816406</v>
+        <v>-5.96655797958374</v>
       </c>
       <c r="FG2" t="n">
-        <v>-21.47663688659668</v>
+        <v>-21.00301742553711</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.1306454390287399</v>
+        <v>0.02859994769096375</v>
       </c>
       <c r="FI2" t="n">
-        <v>3.181946754455566</v>
+        <v>2.737632274627686</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-1.833502292633057</v>
+        <v>-2.734718322753906</v>
       </c>
       <c r="FK2" t="n">
-        <v>-9.01555347442627</v>
+        <v>-9.643039703369141</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.477422684431076</v>
+        <v>-1.078181147575378</v>
       </c>
       <c r="FM2" t="n">
-        <v>16.18178176879883</v>
+        <v>15.00745964050293</v>
       </c>
       <c r="FN2" t="n">
-        <v>3.145875453948975</v>
+        <v>3.306254863739014</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.1136588975787163</v>
+        <v>-0.993432879447937</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.3615726828575134</v>
+        <v>0.1053744927048683</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.2796474993228912</v>
+        <v>0.5349792242050171</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.2161727100610733</v>
+        <v>0.27207151055336</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.8112473487854004</v>
+        <v>-0.290678083896637</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.7358415126800537</v>
+        <v>0.9924181699752808</v>
       </c>
       <c r="FU2" t="n">
-        <v>-4.6417236328125</v>
+        <v>-4.392372608184814</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.7091736793518066</v>
+        <v>1.213793516159058</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.6728600263595581</v>
+        <v>-0.374616950750351</v>
       </c>
       <c r="FX2" t="n">
-        <v>-2.377719163894653</v>
+        <v>-2.253360271453857</v>
       </c>
       <c r="FY2" t="n">
-        <v>-1.854795098304749</v>
+        <v>-1.186449408531189</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-2.781696319580078</v>
+        <v>-2.292127847671509</v>
       </c>
       <c r="GA2" t="n">
-        <v>2.486056327819824</v>
+        <v>2.307052850723267</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.4821198880672455</v>
+        <v>0.9849683046340942</v>
       </c>
       <c r="GC2" t="n">
-        <v>2.396737813949585</v>
+        <v>2.997416496276855</v>
       </c>
       <c r="GD2" t="n">
-        <v>9.304662704467773</v>
+        <v>10.22751712799072</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.4608393311500549</v>
+        <v>-0.1652581244707108</v>
       </c>
       <c r="GF2" t="n">
-        <v>-11.55878639221191</v>
+        <v>-11.73030090332031</v>
       </c>
       <c r="GG2" t="n">
-        <v>-10.12632656097412</v>
+        <v>-10.3380708694458</v>
       </c>
       <c r="GH2" t="n">
-        <v>-1.497379899024963</v>
+        <v>-0.575958251953125</v>
       </c>
       <c r="GI2" t="n">
-        <v>-2.623009204864502</v>
+        <v>-2.027474164962769</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.773663341999054</v>
+        <v>0.2459363341331482</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.5669767260551453</v>
+        <v>-0.8369702696800232</v>
       </c>
       <c r="GL2" t="n">
-        <v>-7.481656551361084</v>
+        <v>-8.145376205444336</v>
       </c>
       <c r="GM2" t="n">
-        <v>-10.59578132629395</v>
+        <v>-9.962156295776367</v>
       </c>
       <c r="GN2" t="n">
-        <v>4.181879997253418</v>
+        <v>4.028427124023438</v>
       </c>
       <c r="GO2" t="n">
-        <v>2.395504474639893</v>
+        <v>2.95170521736145</v>
       </c>
       <c r="GP2" t="n">
-        <v>2.402694702148438</v>
+        <v>2.851983070373535</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-3.045706033706665</v>
+        <v>-2.186428546905518</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.3215898871421814</v>
+        <v>0.7267718315124512</v>
       </c>
       <c r="GS2" t="n">
-        <v>8.330658912658691</v>
+        <v>7.794723510742188</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.7037099599838257</v>
+        <v>-0.1120318695902824</v>
       </c>
       <c r="GU2" t="n">
-        <v>-3.128119230270386</v>
+        <v>-3.577221393585205</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.592568635940552</v>
+        <v>-0.9364964365959167</v>
       </c>
       <c r="GW2" t="n">
-        <v>4.583259105682373</v>
+        <v>5.044341087341309</v>
       </c>
       <c r="GX2" t="n">
-        <v>-2.979301691055298</v>
+        <v>-2.697541952133179</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.958303332328796</v>
+        <v>-1.639683842658997</v>
       </c>
     </row>
   </sheetData>
